--- a/source.xlsx
+++ b/source.xlsx
@@ -17,8 +17,9 @@
     <sheet name="Summary" sheetId="7" state="visible" r:id="rId9"/>
     <sheet name="FORMATO ALTA AP 1-25" sheetId="8" state="visible" r:id="rId10"/>
     <sheet name="FORMATO ALTA" sheetId="9" state="visible" r:id="rId11"/>
-    <sheet name="ANTENAS ARUBA ESTANCIA 2025" sheetId="10" state="visible" r:id="rId12"/>
-    <sheet name="Hoja1" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="antenas seguridad" sheetId="10" state="visible" r:id="rId12"/>
+    <sheet name="antenas sin seguridad" sheetId="11" state="visible" r:id="rId13"/>
+    <sheet name="Hoja1" sheetId="12" state="visible" r:id="rId14"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -190,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3736" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="728">
   <si>
     <t xml:space="preserve">HAB</t>
   </si>
@@ -1956,6 +1957,9 @@
     <t xml:space="preserve">192.168.200.63</t>
   </si>
   <si>
+    <t xml:space="preserve">WPA</t>
+  </si>
+  <si>
     <t xml:space="preserve">192.168.200.64/27</t>
   </si>
   <si>
@@ -1963,6 +1967,9 @@
   </si>
   <si>
     <t xml:space="preserve">192.168.200.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEP</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.200.96/27</t>
@@ -5107,9 +5114,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5118,13 +5125,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="19412" t="33617" r="45507" b="25025"/>
+        <a:srcRect l="19410" t="33612" r="45501" b="25020"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358000" y="12960"/>
-          <a:ext cx="3175200" cy="1948320"/>
+          <a:ext cx="3174840" cy="1947960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5151,9 +5158,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>631080</xdr:colOff>
+      <xdr:colOff>630720</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>104040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5162,13 +5169,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="19412" t="33617" r="45507" b="25025"/>
+        <a:srcRect l="19410" t="33612" r="45501" b="25020"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358000" y="12960"/>
-          <a:ext cx="3175200" cy="1948320"/>
+          <a:ext cx="3174840" cy="1947960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5236,6 +5243,29 @@
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tabla4" displayName="Tabla4" ref="A1:O57" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
+  <autoFilter ref="A1:O57"/>
+  <tableColumns count="15">
+    <tableColumn id="1" name="ROOM"/>
+    <tableColumn id="2" name="TORRE"/>
+    <tableColumn id="3" name="MAC"/>
+    <tableColumn id="4" name="Serie"/>
+    <tableColumn id="5" name="DISPONIBLE"/>
+    <tableColumn id="6" name="Notas"/>
+    <tableColumn id="7" name="INSTALLED"/>
+    <tableColumn id="8" name="RED"/>
+    <tableColumn id="9" name="RANGO HOSTS"/>
+    <tableColumn id="10" name="BROADCAST"/>
+    <tableColumn id="11" name="VLAN"/>
+    <tableColumn id="12" name="PASS"/>
+    <tableColumn id="13" name="SWITCH"/>
+    <tableColumn id="14" name="PORT"/>
+    <tableColumn id="15" name="SSID"/>
+  </tableColumns>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabla4_2" displayName="Tabla4_2" ref="A1:O57" headerRowCount="1" totalsRowCount="0" totalsRowShown="0">
   <autoFilter ref="A1:O57"/>
   <tableColumns count="15">
     <tableColumn id="1" name="ROOM"/>
@@ -5436,7 +5466,7 @@
   </sheetPr>
   <dimension ref="A1:AJ340"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F51" activeCellId="0" sqref="F51"/>
     </sheetView>
   </sheetViews>
@@ -10662,8 +10692,8 @@
   </sheetPr>
   <dimension ref="A1:P1052"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L56" activeCellId="0" sqref="L56"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P5" activeCellId="0" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10827,7 +10857,7 @@
         <v>LaEstancia1103A</v>
       </c>
       <c r="P3" s="220" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10851,13 +10881,13 @@
         <v>579</v>
       </c>
       <c r="H4" s="220" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="I4" s="220" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="J4" s="220" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K4" s="220" t="n">
         <v>1003</v>
@@ -10871,7 +10901,7 @@
         <v>LaEstancia1103B</v>
       </c>
       <c r="P4" s="220" t="s">
-        <v>583</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10898,10 +10928,10 @@
         <v>579</v>
       </c>
       <c r="H5" s="220" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="I5" s="220" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="J5" s="387" t="n">
         <v>192168200127</v>
@@ -10917,9 +10947,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A5)</f>
         <v>LaEstancia1301</v>
       </c>
-      <c r="P5" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="381" t="s">
@@ -10943,10 +10970,10 @@
         <v>579</v>
       </c>
       <c r="H6" s="220" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="I6" s="220" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="J6" s="387" t="n">
         <v>192168200159</v>
@@ -10962,9 +10989,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A6)</f>
         <v>LaEstancia1502A</v>
       </c>
-      <c r="P6" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="381" t="s">
@@ -10988,10 +11012,10 @@
         <v>579</v>
       </c>
       <c r="H7" s="220" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="I7" s="220" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="J7" s="387" t="n">
         <v>192168200191</v>
@@ -11007,9 +11031,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A7)</f>
         <v>LaEstancia1502B</v>
       </c>
-      <c r="P7" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="381" t="s">
@@ -11033,10 +11054,10 @@
         <v>579</v>
       </c>
       <c r="H8" s="220" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="I8" s="220" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="J8" s="387" t="n">
         <v>192168200223</v>
@@ -11052,9 +11073,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A8)</f>
         <v>LaEstancia1706A</v>
       </c>
-      <c r="P8" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="381" t="s">
@@ -11078,10 +11096,10 @@
         <v>579</v>
       </c>
       <c r="H9" s="220" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="I9" s="220" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="J9" s="387" t="n">
         <v>192168200255</v>
@@ -11097,9 +11115,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A9)</f>
         <v>LaEstancia1706B</v>
       </c>
-      <c r="P9" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="381" t="s">
@@ -11110,7 +11125,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="220" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D10" s="381" t="str">
         <f aca="false" t="array" ref="D10:D10">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11123,13 +11138,13 @@
         <v>579</v>
       </c>
       <c r="H10" s="220" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="I10" s="220" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="J10" s="220" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="K10" s="220" t="n">
         <v>1009</v>
@@ -11142,9 +11157,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A10)</f>
         <v>LaEstancia1807B</v>
       </c>
-      <c r="P10" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="381" t="s">
@@ -11168,13 +11180,13 @@
         <v>579</v>
       </c>
       <c r="H11" s="220" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="I11" s="220" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="J11" s="220" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="K11" s="220" t="n">
         <v>1010</v>
@@ -11187,9 +11199,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A11)</f>
         <v>LaEstancia2104B</v>
       </c>
-      <c r="P11" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="381" t="s">
@@ -11200,7 +11209,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="388" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="D12" s="389" t="str">
         <f aca="false" t="array" ref="D12:D12">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11213,13 +11222,13 @@
         <v>579</v>
       </c>
       <c r="H12" s="220" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="I12" s="220" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="J12" s="220" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="K12" s="220" t="n">
         <v>1011</v>
@@ -11232,9 +11241,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A12)</f>
         <v>LaEstancia2201A</v>
       </c>
-      <c r="P12" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="381" t="s">
@@ -11258,10 +11264,10 @@
         <v>579</v>
       </c>
       <c r="H13" s="220" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="I13" s="220" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="J13" s="387" t="n">
         <v>192168201127</v>
@@ -11277,9 +11283,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A13)</f>
         <v>LaEstancia2201B</v>
       </c>
-      <c r="P13" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="381" t="s">
@@ -11303,10 +11306,10 @@
         <v>579</v>
       </c>
       <c r="H14" s="220" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="I14" s="220" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="J14" s="387" t="n">
         <v>192168201159</v>
@@ -11322,9 +11325,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A14)</f>
         <v>LaEstancia2603B</v>
       </c>
-      <c r="P14" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="381" t="s">
@@ -11348,10 +11348,10 @@
         <v>579</v>
       </c>
       <c r="H15" s="220" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="I15" s="220" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="J15" s="387" t="n">
         <v>192168201191</v>
@@ -11367,9 +11367,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A15)</f>
         <v>LaEstancia2604A</v>
       </c>
-      <c r="P15" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="381" t="s">
@@ -11393,10 +11390,10 @@
         <v>579</v>
       </c>
       <c r="H16" s="220" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="I16" s="220" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="J16" s="387" t="n">
         <v>192168201223</v>
@@ -11412,9 +11409,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A16)</f>
         <v>LaEstancia2604B</v>
       </c>
-      <c r="P16" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="381" t="s">
@@ -11438,10 +11432,10 @@
         <v>579</v>
       </c>
       <c r="H17" s="220" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="I17" s="220" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="J17" s="387" t="n">
         <v>192168201255</v>
@@ -11457,9 +11451,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A17)</f>
         <v>LaEstancia2701A</v>
       </c>
-      <c r="P17" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="381" t="s">
@@ -11483,13 +11474,13 @@
         <v>579</v>
       </c>
       <c r="H18" s="220" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="I18" s="220" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="J18" s="220" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="K18" s="220" t="n">
         <v>1017</v>
@@ -11502,9 +11493,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A18)</f>
         <v>LaEstancia2701B</v>
       </c>
-      <c r="P18" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="381" t="s">
@@ -11528,13 +11516,13 @@
         <v>579</v>
       </c>
       <c r="H19" s="220" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="I19" s="220" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="J19" s="220" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="K19" s="220" t="n">
         <v>1018</v>
@@ -11547,9 +11535,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A19)</f>
         <v>LaEstancia2901A</v>
       </c>
-      <c r="P19" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="381" t="s">
@@ -11573,13 +11558,13 @@
         <v>579</v>
       </c>
       <c r="H20" s="220" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="I20" s="220" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="J20" s="220" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="K20" s="220" t="n">
         <v>1019</v>
@@ -11592,9 +11577,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A20)</f>
         <v>LaEstancia2901B</v>
       </c>
-      <c r="P20" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="381" t="s">
@@ -11605,7 +11587,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="220" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D21" s="220" t="str">
         <f aca="false" t="array" ref="D21:D21">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11618,10 +11600,10 @@
         <v>579</v>
       </c>
       <c r="H21" s="220" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="I21" s="220" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="J21" s="387" t="n">
         <v>192168202127</v>
@@ -11637,9 +11619,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A21)</f>
         <v>LaEstancia2902A</v>
       </c>
-      <c r="P21" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="381" t="s">
@@ -11650,7 +11629,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="388" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D22" s="388" t="str">
         <f aca="false" t="array" ref="D22:D22">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11663,10 +11642,10 @@
         <v>579</v>
       </c>
       <c r="H22" s="220" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="I22" s="220" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="J22" s="387" t="n">
         <v>192168202159</v>
@@ -11682,9 +11661,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A22)</f>
         <v>LaEstancia2902B</v>
       </c>
-      <c r="P22" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="381" t="s">
@@ -11708,10 +11684,10 @@
         <v>579</v>
       </c>
       <c r="H23" s="220" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="I23" s="220" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="J23" s="387" t="n">
         <v>192168202191</v>
@@ -11727,9 +11703,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A23)</f>
         <v>LaEstancia3102A</v>
       </c>
-      <c r="P23" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="381" t="s">
@@ -11740,7 +11713,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="220" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="D24" s="220" t="str">
         <f aca="false" t="array" ref="D24:D24">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11753,10 +11726,10 @@
         <v>579</v>
       </c>
       <c r="H24" s="220" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="I24" s="220" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="J24" s="387" t="n">
         <v>192168202223</v>
@@ -11772,9 +11745,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A24)</f>
         <v>LaEstancia3102B</v>
       </c>
-      <c r="P24" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="381" t="s">
@@ -11798,10 +11768,10 @@
         <v>579</v>
       </c>
       <c r="H25" s="220" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="I25" s="220" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="J25" s="387" t="n">
         <v>192168202255</v>
@@ -11817,9 +11787,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A25)</f>
         <v>LaEstancia3103A</v>
       </c>
-      <c r="P25" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="381" t="s">
@@ -11843,13 +11810,13 @@
         <v>579</v>
       </c>
       <c r="H26" s="220" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="I26" s="220" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="J26" s="220" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="K26" s="220" t="n">
         <v>1025</v>
@@ -11862,9 +11829,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A26)</f>
         <v>LaEstancia3104A</v>
       </c>
-      <c r="P26" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="381" t="s">
@@ -11888,13 +11852,13 @@
         <v>579</v>
       </c>
       <c r="H27" s="220" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="I27" s="220" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="J27" s="220" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="K27" s="220" t="n">
         <v>1026</v>
@@ -11907,9 +11871,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A27)</f>
         <v>LaEstancia3104B</v>
       </c>
-      <c r="P27" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="381" t="s">
@@ -11920,7 +11881,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="220" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="D28" s="220" t="str">
         <f aca="false" t="array" ref="D28:D28">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11933,13 +11894,13 @@
         <v>579</v>
       </c>
       <c r="H28" s="220" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="I28" s="220" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="J28" s="220" t="s">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="K28" s="220" t="n">
         <v>1027</v>
@@ -11952,9 +11913,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A28)</f>
         <v>LaEstancia3306A</v>
       </c>
-      <c r="P28" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="381" t="s">
@@ -11965,7 +11923,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="220" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D29" s="220" t="str">
         <f aca="false" t="array" ref="D29:D29">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11978,10 +11936,10 @@
         <v>579</v>
       </c>
       <c r="H29" s="220" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="I29" s="220" t="s">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="J29" s="387" t="n">
         <v>192168203127</v>
@@ -11997,9 +11955,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A29)</f>
         <v>LaEstancia3306B</v>
       </c>
-      <c r="P29" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="381" t="s">
@@ -12023,10 +11978,10 @@
         <v>579</v>
       </c>
       <c r="H30" s="220" t="s">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="I30" s="220" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="J30" s="387" t="n">
         <v>192168203159</v>
@@ -12042,9 +11997,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A30)</f>
         <v>LaEstancia3504A</v>
       </c>
-      <c r="P30" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="381" t="s">
@@ -12055,7 +12007,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="220" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="D31" s="220" t="str">
         <f aca="false" t="array" ref="D31:D31">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12068,10 +12020,10 @@
         <v>579</v>
       </c>
       <c r="H31" s="220" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="I31" s="220" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="J31" s="387" t="n">
         <v>192168203191</v>
@@ -12087,9 +12039,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A31)</f>
         <v>LaEstancia3504B</v>
       </c>
-      <c r="P31" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="381" t="s">
@@ -12100,7 +12049,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="220" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="D32" s="220" t="str">
         <f aca="false" t="array" ref="D32:D32">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12113,10 +12062,10 @@
         <v>579</v>
       </c>
       <c r="H32" s="220" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="I32" s="220" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="J32" s="387" t="n">
         <v>192168203223</v>
@@ -12132,9 +12081,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A32)</f>
         <v>LaEstancia3603A</v>
       </c>
-      <c r="P32" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="381" t="s">
@@ -12158,10 +12104,10 @@
         <v>579</v>
       </c>
       <c r="H33" s="220" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="I33" s="220" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="J33" s="387" t="n">
         <v>192168203255</v>
@@ -12177,9 +12123,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A33)</f>
         <v>LaEstancia3603B</v>
       </c>
-      <c r="P33" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="381" t="s">
@@ -12190,7 +12133,7 @@
         <v>3</v>
       </c>
       <c r="C34" s="388" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="D34" s="388" t="str">
         <f aca="false" t="array" ref="D34:D34">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12203,13 +12146,13 @@
         <v>579</v>
       </c>
       <c r="H34" s="220" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="I34" s="220" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="J34" s="220" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="K34" s="220" t="n">
         <v>1033</v>
@@ -12222,9 +12165,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A34)</f>
         <v>LaEstancia3604B</v>
       </c>
-      <c r="P34" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="381" t="s">
@@ -12235,7 +12175,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="220" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="D35" s="220" t="str">
         <f aca="false" t="array" ref="D35:D35">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12248,13 +12188,13 @@
         <v>579</v>
       </c>
       <c r="H35" s="220" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="I35" s="220" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="J35" s="220" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="K35" s="220" t="n">
         <v>1034</v>
@@ -12267,9 +12207,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A35)</f>
         <v>LaEstancia3605A</v>
       </c>
-      <c r="P35" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="381" t="s">
@@ -12280,7 +12217,7 @@
         <v>3</v>
       </c>
       <c r="C36" s="220" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="D36" s="220" t="str">
         <f aca="false" t="array" ref="D36:D36">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12293,13 +12230,13 @@
         <v>579</v>
       </c>
       <c r="H36" s="220" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="I36" s="220" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="J36" s="220" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="K36" s="220" t="n">
         <v>1035</v>
@@ -12312,9 +12249,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A36)</f>
         <v>LaEstancia3605B</v>
       </c>
-      <c r="P36" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="381" t="s">
@@ -12325,7 +12259,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="220" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="D37" s="220" t="str">
         <f aca="false" t="array" ref="D37:D37">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12338,10 +12272,10 @@
         <v>579</v>
       </c>
       <c r="H37" s="220" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="I37" s="220" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="J37" s="387" t="n">
         <v>192168204127</v>
@@ -12357,9 +12291,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A37)</f>
         <v>LaEstancia3606A</v>
       </c>
-      <c r="P37" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="381" t="s">
@@ -12370,7 +12301,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="220" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="D38" s="220" t="str">
         <f aca="false" t="array" ref="D38:D38">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12383,10 +12314,10 @@
         <v>579</v>
       </c>
       <c r="H38" s="220" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="I38" s="220" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="J38" s="387" t="n">
         <v>192168204159</v>
@@ -12402,9 +12333,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A38)</f>
         <v>LaEstancia3606B</v>
       </c>
-      <c r="P38" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="381" t="s">
@@ -12415,7 +12343,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="220" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="D39" s="220" t="str">
         <f aca="false" t="array" ref="D39:D39">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12428,10 +12356,10 @@
         <v>579</v>
       </c>
       <c r="H39" s="220" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="I39" s="220" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="J39" s="387" t="n">
         <v>192168204191</v>
@@ -12447,9 +12375,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A39)</f>
         <v>LaEstancia3607A</v>
       </c>
-      <c r="P39" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="381" t="s">
@@ -12473,10 +12398,10 @@
         <v>579</v>
       </c>
       <c r="H40" s="220" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="I40" s="220" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="J40" s="387" t="n">
         <v>192168204223</v>
@@ -12492,9 +12417,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A40)</f>
         <v>LaEstancia3607B</v>
       </c>
-      <c r="P40" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="381" t="s">
@@ -12518,10 +12440,10 @@
         <v>579</v>
       </c>
       <c r="H41" s="220" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="I41" s="220" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="J41" s="387" t="n">
         <v>192168204255</v>
@@ -12537,9 +12459,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A41)</f>
         <v>LaEstancia3705A</v>
       </c>
-      <c r="P41" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="381" t="s">
@@ -12563,13 +12482,13 @@
         <v>579</v>
       </c>
       <c r="H42" s="220" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="I42" s="220" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="J42" s="220" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="K42" s="220" t="n">
         <v>1041</v>
@@ -12582,9 +12501,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A42)</f>
         <v>LaEstancia3705B</v>
       </c>
-      <c r="P42" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="381" t="s">
@@ -12608,13 +12524,13 @@
         <v>579</v>
       </c>
       <c r="H43" s="220" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="I43" s="220" t="s">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="J43" s="220" t="s">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="K43" s="220" t="n">
         <v>1042</v>
@@ -12627,9 +12543,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A43)</f>
         <v>LaEstancia3706A</v>
       </c>
-      <c r="P43" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="381" t="s">
@@ -12653,13 +12566,13 @@
         <v>579</v>
       </c>
       <c r="H44" s="220" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="I44" s="220" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="J44" s="220" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="K44" s="220" t="n">
         <v>1043</v>
@@ -12672,9 +12585,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A44)</f>
         <v>LaEstancia3706B</v>
       </c>
-      <c r="P44" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="381" t="s">
@@ -12698,10 +12608,10 @@
         <v>579</v>
       </c>
       <c r="H45" s="220" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="I45" s="220" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="J45" s="387" t="n">
         <v>192168205127</v>
@@ -12717,9 +12627,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A45)</f>
         <v>LaEstancia3707A</v>
       </c>
-      <c r="P45" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="381" t="s">
@@ -12743,10 +12650,10 @@
         <v>579</v>
       </c>
       <c r="H46" s="220" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="I46" s="220" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="J46" s="387" t="n">
         <v>192168205159</v>
@@ -12762,9 +12669,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A46)</f>
         <v>LaEstancia3707B</v>
       </c>
-      <c r="P46" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="381" t="s">
@@ -12788,10 +12692,10 @@
         <v>579</v>
       </c>
       <c r="H47" s="220" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
       <c r="I47" s="220" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="J47" s="387" t="n">
         <v>192168205191</v>
@@ -12807,9 +12711,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A47)</f>
         <v>LaEstancia3805A</v>
       </c>
-      <c r="P47" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="381" t="s">
@@ -12833,10 +12734,10 @@
         <v>579</v>
       </c>
       <c r="H48" s="220" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="I48" s="220" t="s">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="J48" s="387" t="n">
         <v>192168205223</v>
@@ -12852,9 +12753,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A48)</f>
         <v>LaEstancia3805B</v>
       </c>
-      <c r="P48" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="381" t="s">
@@ -12878,10 +12776,10 @@
         <v>579</v>
       </c>
       <c r="H49" s="220" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="I49" s="220" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="J49" s="387" t="n">
         <v>192168205255</v>
@@ -12897,9 +12795,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A49)</f>
         <v>LaEstancia3806A</v>
       </c>
-      <c r="P49" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="381" t="s">
@@ -12923,13 +12818,13 @@
         <v>579</v>
       </c>
       <c r="H50" s="220" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="I50" s="220" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="J50" s="220" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="K50" s="220" t="n">
         <v>1049</v>
@@ -12942,9 +12837,6 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A50)</f>
         <v>LaEstancia3806B</v>
       </c>
-      <c r="P50" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="381" t="s">
@@ -12968,13 +12860,13 @@
         <v>579</v>
       </c>
       <c r="H51" s="220" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="I51" s="220" t="s">
-        <v>715</v>
+        <v>717</v>
       </c>
       <c r="J51" s="220" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="K51" s="220" t="n">
         <v>1050</v>
@@ -12987,13 +12879,10 @@
         <f aca="false">_xlfn.CONCAT("LaEstancia",A51)</f>
         <v>LaEstancia3807B</v>
       </c>
-      <c r="P51" s="220" t="s">
-        <v>583</v>
-      </c>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="381" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="B52" s="220" t="str">
         <f aca="false">LEFT(A52)</f>
@@ -13007,13 +12896,13 @@
       <c r="F52" s="382"/>
       <c r="G52" s="221"/>
       <c r="H52" s="220" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="I52" s="220" t="s">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="J52" s="220" t="s">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="K52" s="220" t="n">
         <v>1051</v>
@@ -13022,10 +12911,7 @@
         <v>123456789</v>
       </c>
       <c r="O52" s="220" t="s">
-        <v>721</v>
-      </c>
-      <c r="P52" s="220" t="s">
-        <v>583</v>
+        <v>723</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16119,9 +16005,5311 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:O1052"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="381" width="10.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="220" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="382" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="382" width="37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="220" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="220" width="28.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="220" width="15.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="220" width="23.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="220" width="35.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="220" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="220" width="11.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="220" width="18.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="220" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="220" width="12.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="220" width="17.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="16" style="220" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="220" width="46.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="383" t="s">
+        <v>563</v>
+      </c>
+      <c r="B1" s="221" t="s">
+        <v>564</v>
+      </c>
+      <c r="C1" s="221" t="s">
+        <v>565</v>
+      </c>
+      <c r="D1" s="221" t="s">
+        <v>566</v>
+      </c>
+      <c r="E1" s="384" t="s">
+        <v>567</v>
+      </c>
+      <c r="F1" s="221" t="s">
+        <v>402</v>
+      </c>
+      <c r="G1" s="221" t="s">
+        <v>568</v>
+      </c>
+      <c r="H1" s="385" t="s">
+        <v>569</v>
+      </c>
+      <c r="I1" s="385" t="s">
+        <v>570</v>
+      </c>
+      <c r="J1" s="385" t="s">
+        <v>571</v>
+      </c>
+      <c r="K1" s="221" t="s">
+        <v>572</v>
+      </c>
+      <c r="L1" s="221" t="s">
+        <v>573</v>
+      </c>
+      <c r="M1" s="221" t="s">
+        <v>574</v>
+      </c>
+      <c r="N1" s="221" t="s">
+        <v>575</v>
+      </c>
+      <c r="O1" s="221" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="381" t="s">
+        <v>577</v>
+      </c>
+      <c r="B2" s="386" t="str">
+        <f aca="false">LEFT(A2)</f>
+        <v>1</v>
+      </c>
+      <c r="C2" s="220" t="s">
+        <v>528</v>
+      </c>
+      <c r="D2" s="221" t="s">
+        <v>405</v>
+      </c>
+      <c r="E2" s="382" t="n">
+        <v>45773</v>
+      </c>
+      <c r="F2" s="220" t="s">
+        <v>578</v>
+      </c>
+      <c r="G2" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H2" s="220" t="s">
+        <v>580</v>
+      </c>
+      <c r="I2" s="220" t="s">
+        <v>581</v>
+      </c>
+      <c r="J2" s="220" t="s">
+        <v>582</v>
+      </c>
+      <c r="K2" s="220" t="n">
+        <v>1001</v>
+      </c>
+      <c r="L2" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B2,"VLEV",A2,IF(LEN(A2)=4,"OF",))</f>
+        <v>T1VLEV1301OF</v>
+      </c>
+      <c r="O2" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A2)</f>
+        <v>LaEstancia1301</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="381" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="220" t="str">
+        <f aca="false">LEFT(A3)</f>
+        <v>1</v>
+      </c>
+      <c r="C3" s="220" t="s">
+        <v>518</v>
+      </c>
+      <c r="D3" s="221" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G3" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H3" s="220" t="s">
+        <v>585</v>
+      </c>
+      <c r="I3" s="220" t="s">
+        <v>586</v>
+      </c>
+      <c r="J3" s="220" t="s">
+        <v>587</v>
+      </c>
+      <c r="K3" s="220" t="n">
+        <v>1002</v>
+      </c>
+      <c r="L3" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B3,"VLEV",A3,IF(LEN(A3)=4,"OF",))</f>
+        <v>T1VLEV1103A</v>
+      </c>
+      <c r="O3" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A3)</f>
+        <v>LaEstancia1103A</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="381" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="220" t="str">
+        <f aca="false">LEFT(A4)</f>
+        <v>1</v>
+      </c>
+      <c r="C4" s="220" t="s">
+        <v>519</v>
+      </c>
+      <c r="D4" s="221" t="s">
+        <v>419</v>
+      </c>
+      <c r="E4" s="382" t="n">
+        <v>45772</v>
+      </c>
+      <c r="G4" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H4" s="220" t="s">
+        <v>589</v>
+      </c>
+      <c r="I4" s="220" t="s">
+        <v>590</v>
+      </c>
+      <c r="J4" s="220" t="s">
+        <v>591</v>
+      </c>
+      <c r="K4" s="220" t="n">
+        <v>1003</v>
+      </c>
+      <c r="L4" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B4,"VLEV",A4,IF(LEN(A4)=4,"OF",))</f>
+        <v>T1VLEV1103B</v>
+      </c>
+      <c r="O4" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A4)</f>
+        <v>LaEstancia1103B</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="381" t="s">
+        <v>577</v>
+      </c>
+      <c r="B5" s="220" t="str">
+        <f aca="false">LEFT(A5)</f>
+        <v>1</v>
+      </c>
+      <c r="C5" s="220" t="s">
+        <v>554</v>
+      </c>
+      <c r="D5" s="221" t="s">
+        <v>407</v>
+      </c>
+      <c r="E5" s="382" t="n">
+        <v>45773</v>
+      </c>
+      <c r="F5" s="220" t="s">
+        <v>578</v>
+      </c>
+      <c r="G5" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H5" s="220" t="s">
+        <v>593</v>
+      </c>
+      <c r="I5" s="220" t="s">
+        <v>594</v>
+      </c>
+      <c r="J5" s="387" t="n">
+        <v>192168200127</v>
+      </c>
+      <c r="K5" s="220" t="n">
+        <v>1004</v>
+      </c>
+      <c r="L5" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B5,"VLEV",A5,IF(LEN(A5)=4,"OF",))</f>
+        <v>T1VLEV1301OF</v>
+      </c>
+      <c r="O5" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A5)</f>
+        <v>LaEstancia1301</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="220" t="str">
+        <f aca="false">LEFT(A6)</f>
+        <v>1</v>
+      </c>
+      <c r="C6" s="220" t="s">
+        <v>523</v>
+      </c>
+      <c r="D6" s="381" t="str">
+        <f aca="false" t="array" ref="D6:D6">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E6" s="382" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G6" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H6" s="220" t="s">
+        <v>595</v>
+      </c>
+      <c r="I6" s="220" t="s">
+        <v>596</v>
+      </c>
+      <c r="J6" s="387" t="n">
+        <v>192168200159</v>
+      </c>
+      <c r="K6" s="220" t="n">
+        <v>1005</v>
+      </c>
+      <c r="L6" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B6,"VLEV",A6,IF(LEN(A6)=4,"OF",))</f>
+        <v>T1VLEV1502A</v>
+      </c>
+      <c r="O6" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A6)</f>
+        <v>LaEstancia1502A</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="381" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="220" t="str">
+        <f aca="false">LEFT(A7)</f>
+        <v>1</v>
+      </c>
+      <c r="C7" s="220" t="s">
+        <v>524</v>
+      </c>
+      <c r="D7" s="381" t="str">
+        <f aca="false" t="array" ref="D7:D7">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E7" s="382" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G7" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H7" s="220" t="s">
+        <v>597</v>
+      </c>
+      <c r="I7" s="220" t="s">
+        <v>598</v>
+      </c>
+      <c r="J7" s="387" t="n">
+        <v>192168200191</v>
+      </c>
+      <c r="K7" s="220" t="n">
+        <v>1006</v>
+      </c>
+      <c r="L7" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B7,"VLEV",A7,IF(LEN(A7)=4,"OF",))</f>
+        <v>T1VLEV1502B</v>
+      </c>
+      <c r="O7" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A7)</f>
+        <v>LaEstancia1502B</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="381" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="220" t="str">
+        <f aca="false">LEFT(A8)</f>
+        <v>1</v>
+      </c>
+      <c r="C8" s="220" t="s">
+        <v>521</v>
+      </c>
+      <c r="D8" s="381" t="str">
+        <f aca="false" t="array" ref="D8:D8">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E8" s="382" t="n">
+        <v>45772</v>
+      </c>
+      <c r="G8" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H8" s="220" t="s">
+        <v>599</v>
+      </c>
+      <c r="I8" s="220" t="s">
+        <v>600</v>
+      </c>
+      <c r="J8" s="387" t="n">
+        <v>192168200223</v>
+      </c>
+      <c r="K8" s="220" t="n">
+        <v>1007</v>
+      </c>
+      <c r="L8" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B8,"VLEV",A8,IF(LEN(A8)=4,"OF",))</f>
+        <v>T1VLEV1706A</v>
+      </c>
+      <c r="O8" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A8)</f>
+        <v>LaEstancia1706A</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="381" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="220" t="str">
+        <f aca="false">LEFT(A9)</f>
+        <v>1</v>
+      </c>
+      <c r="C9" s="220" t="s">
+        <v>522</v>
+      </c>
+      <c r="D9" s="381" t="str">
+        <f aca="false" t="array" ref="D9:D9">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E9" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G9" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H9" s="220" t="s">
+        <v>601</v>
+      </c>
+      <c r="I9" s="220" t="s">
+        <v>602</v>
+      </c>
+      <c r="J9" s="387" t="n">
+        <v>192168200255</v>
+      </c>
+      <c r="K9" s="220" t="n">
+        <v>1008</v>
+      </c>
+      <c r="L9" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B9,"VLEV",A9,IF(LEN(A9)=4,"OF",))</f>
+        <v>T1VLEV1706B</v>
+      </c>
+      <c r="O9" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A9)</f>
+        <v>LaEstancia1706B</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="381" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="220" t="str">
+        <f aca="false">LEFT(A10)</f>
+        <v>1</v>
+      </c>
+      <c r="C10" s="220" t="s">
+        <v>603</v>
+      </c>
+      <c r="D10" s="381" t="str">
+        <f aca="false" t="array" ref="D10:D10">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E10" s="382" t="n">
+        <v>45774</v>
+      </c>
+      <c r="G10" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H10" s="220" t="s">
+        <v>604</v>
+      </c>
+      <c r="I10" s="220" t="s">
+        <v>605</v>
+      </c>
+      <c r="J10" s="220" t="s">
+        <v>606</v>
+      </c>
+      <c r="K10" s="220" t="n">
+        <v>1009</v>
+      </c>
+      <c r="L10" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B10,"VLEV",A10,IF(LEN(A10)=4,"OF",))</f>
+        <v>T1VLEV1807B</v>
+      </c>
+      <c r="O10" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A10)</f>
+        <v>LaEstancia1807B</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="381" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="220" t="str">
+        <f aca="false">LEFT(A11)</f>
+        <v>2</v>
+      </c>
+      <c r="C11" s="220" t="s">
+        <v>525</v>
+      </c>
+      <c r="D11" s="381" t="str">
+        <f aca="false" t="array" ref="D11:D11">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E11" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G11" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H11" s="220" t="s">
+        <v>607</v>
+      </c>
+      <c r="I11" s="220" t="s">
+        <v>608</v>
+      </c>
+      <c r="J11" s="220" t="s">
+        <v>609</v>
+      </c>
+      <c r="K11" s="220" t="n">
+        <v>1010</v>
+      </c>
+      <c r="L11" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B11,"VLEV",A11,IF(LEN(A11)=4,"OF",))</f>
+        <v>T2VLEV2104B</v>
+      </c>
+      <c r="O11" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A11)</f>
+        <v>LaEstancia2104B</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="381" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="220" t="str">
+        <f aca="false">LEFT(A12)</f>
+        <v>2</v>
+      </c>
+      <c r="C12" s="388" t="s">
+        <v>610</v>
+      </c>
+      <c r="D12" s="389" t="str">
+        <f aca="false" t="array" ref="D12:D12">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E12" s="382" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G12" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H12" s="220" t="s">
+        <v>611</v>
+      </c>
+      <c r="I12" s="220" t="s">
+        <v>612</v>
+      </c>
+      <c r="J12" s="220" t="s">
+        <v>613</v>
+      </c>
+      <c r="K12" s="220" t="n">
+        <v>1011</v>
+      </c>
+      <c r="L12" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B12,"VLEV",A12,IF(LEN(A12)=4,"OF",))</f>
+        <v>T2VLEV2201A</v>
+      </c>
+      <c r="O12" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A12)</f>
+        <v>LaEstancia2201A</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="381" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="220" t="str">
+        <f aca="false">LEFT(A13)</f>
+        <v>2</v>
+      </c>
+      <c r="C13" s="220" t="s">
+        <v>529</v>
+      </c>
+      <c r="D13" s="381" t="str">
+        <f aca="false" t="array" ref="D13:D13">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E13" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H13" s="220" t="s">
+        <v>614</v>
+      </c>
+      <c r="I13" s="220" t="s">
+        <v>615</v>
+      </c>
+      <c r="J13" s="387" t="n">
+        <v>192168201127</v>
+      </c>
+      <c r="K13" s="220" t="n">
+        <v>1012</v>
+      </c>
+      <c r="L13" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B13,"VLEV",A13,IF(LEN(A13)=4,"OF",))</f>
+        <v>T2VLEV2201B</v>
+      </c>
+      <c r="O13" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A13)</f>
+        <v>LaEstancia2201B</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="381" t="s">
+        <v>137</v>
+      </c>
+      <c r="B14" s="220" t="str">
+        <f aca="false">LEFT(A14)</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="220" t="s">
+        <v>534</v>
+      </c>
+      <c r="D14" s="381" t="str">
+        <f aca="false" t="array" ref="D14:D14">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E14" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G14" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H14" s="220" t="s">
+        <v>616</v>
+      </c>
+      <c r="I14" s="220" t="s">
+        <v>617</v>
+      </c>
+      <c r="J14" s="387" t="n">
+        <v>192168201159</v>
+      </c>
+      <c r="K14" s="220" t="n">
+        <v>1013</v>
+      </c>
+      <c r="L14" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B14,"VLEV",A14,IF(LEN(A14)=4,"OF",))</f>
+        <v>T2VLEV2603B</v>
+      </c>
+      <c r="O14" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A14)</f>
+        <v>LaEstancia2603B</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="381" t="s">
+        <v>145</v>
+      </c>
+      <c r="B15" s="220" t="str">
+        <f aca="false">LEFT(A15)</f>
+        <v>2</v>
+      </c>
+      <c r="C15" s="220" t="s">
+        <v>532</v>
+      </c>
+      <c r="D15" s="220" t="str">
+        <f aca="false" t="array" ref="D15:D15">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E15" s="382" t="n">
+        <v>45776</v>
+      </c>
+      <c r="G15" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H15" s="220" t="s">
+        <v>618</v>
+      </c>
+      <c r="I15" s="220" t="s">
+        <v>619</v>
+      </c>
+      <c r="J15" s="387" t="n">
+        <v>192168201191</v>
+      </c>
+      <c r="K15" s="220" t="n">
+        <v>1014</v>
+      </c>
+      <c r="L15" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B15,"VLEV",A15,IF(LEN(A15)=4,"OF",))</f>
+        <v>T2VLEV2604A</v>
+      </c>
+      <c r="O15" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A15)</f>
+        <v>LaEstancia2604A</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="381" t="s">
+        <v>153</v>
+      </c>
+      <c r="B16" s="220" t="str">
+        <f aca="false">LEFT(A16)</f>
+        <v>2</v>
+      </c>
+      <c r="C16" s="220" t="s">
+        <v>533</v>
+      </c>
+      <c r="D16" s="220" t="str">
+        <f aca="false" t="array" ref="D16:D16">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E16" s="382" t="n">
+        <v>45774</v>
+      </c>
+      <c r="G16" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H16" s="220" t="s">
+        <v>620</v>
+      </c>
+      <c r="I16" s="220" t="s">
+        <v>621</v>
+      </c>
+      <c r="J16" s="387" t="n">
+        <v>192168201223</v>
+      </c>
+      <c r="K16" s="220" t="n">
+        <v>1015</v>
+      </c>
+      <c r="L16" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B16,"VLEV",A16,IF(LEN(A16)=4,"OF",))</f>
+        <v>T2VLEV2604B</v>
+      </c>
+      <c r="O16" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A16)</f>
+        <v>LaEstancia2604B</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="381" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="220" t="str">
+        <f aca="false">LEFT(A17)</f>
+        <v>2</v>
+      </c>
+      <c r="C17" s="220" t="s">
+        <v>526</v>
+      </c>
+      <c r="D17" s="220" t="str">
+        <f aca="false" t="array" ref="D17:D17">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E17" s="382" t="n">
+        <v>45779</v>
+      </c>
+      <c r="G17" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H17" s="220" t="s">
+        <v>622</v>
+      </c>
+      <c r="I17" s="220" t="s">
+        <v>623</v>
+      </c>
+      <c r="J17" s="387" t="n">
+        <v>192168201255</v>
+      </c>
+      <c r="K17" s="220" t="n">
+        <v>1016</v>
+      </c>
+      <c r="L17" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B17,"VLEV",A17,IF(LEN(A17)=4,"OF",))</f>
+        <v>T2VLEV2701A</v>
+      </c>
+      <c r="O17" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A17)</f>
+        <v>LaEstancia2701A</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="381" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="220" t="str">
+        <f aca="false">LEFT(A18)</f>
+        <v>2</v>
+      </c>
+      <c r="C18" s="220" t="s">
+        <v>527</v>
+      </c>
+      <c r="D18" s="220" t="str">
+        <f aca="false" t="array" ref="D18:D18">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E18" s="382" t="n">
+        <v>45779</v>
+      </c>
+      <c r="G18" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H18" s="220" t="s">
+        <v>624</v>
+      </c>
+      <c r="I18" s="220" t="s">
+        <v>625</v>
+      </c>
+      <c r="J18" s="220" t="s">
+        <v>626</v>
+      </c>
+      <c r="K18" s="220" t="n">
+        <v>1017</v>
+      </c>
+      <c r="L18" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B18,"VLEV",A18,IF(LEN(A18)=4,"OF",))</f>
+        <v>T2VLEV2701B</v>
+      </c>
+      <c r="O18" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A18)</f>
+        <v>LaEstancia2701B</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="381" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="220" t="str">
+        <f aca="false">LEFT(A19)</f>
+        <v>2</v>
+      </c>
+      <c r="C19" s="220" t="s">
+        <v>530</v>
+      </c>
+      <c r="D19" s="220" t="str">
+        <f aca="false" t="array" ref="D19:D19">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E19" s="382" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G19" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H19" s="220" t="s">
+        <v>627</v>
+      </c>
+      <c r="I19" s="220" t="s">
+        <v>628</v>
+      </c>
+      <c r="J19" s="220" t="s">
+        <v>629</v>
+      </c>
+      <c r="K19" s="220" t="n">
+        <v>1018</v>
+      </c>
+      <c r="L19" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B19,"VLEV",A19,IF(LEN(A19)=4,"OF",))</f>
+        <v>T2VLEV2901A</v>
+      </c>
+      <c r="O19" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A19)</f>
+        <v>LaEstancia2901A</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="381" t="s">
+        <v>108</v>
+      </c>
+      <c r="B20" s="220" t="str">
+        <f aca="false">LEFT(A20)</f>
+        <v>2</v>
+      </c>
+      <c r="C20" s="220" t="s">
+        <v>531</v>
+      </c>
+      <c r="D20" s="220" t="str">
+        <f aca="false" t="array" ref="D20:D20">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E20" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G20" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H20" s="220" t="s">
+        <v>630</v>
+      </c>
+      <c r="I20" s="220" t="s">
+        <v>631</v>
+      </c>
+      <c r="J20" s="220" t="s">
+        <v>632</v>
+      </c>
+      <c r="K20" s="220" t="n">
+        <v>1019</v>
+      </c>
+      <c r="L20" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B20,"VLEV",A20,IF(LEN(A20)=4,"OF",))</f>
+        <v>T2VLEV2901B</v>
+      </c>
+      <c r="O20" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A20)</f>
+        <v>LaEstancia2901B</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="381" t="s">
+        <v>116</v>
+      </c>
+      <c r="B21" s="220" t="str">
+        <f aca="false">LEFT(A21)</f>
+        <v>2</v>
+      </c>
+      <c r="C21" s="220" t="s">
+        <v>633</v>
+      </c>
+      <c r="D21" s="220" t="str">
+        <f aca="false" t="array" ref="D21:D21">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E21" s="382" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G21" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H21" s="220" t="s">
+        <v>634</v>
+      </c>
+      <c r="I21" s="220" t="s">
+        <v>635</v>
+      </c>
+      <c r="J21" s="387" t="n">
+        <v>192168202127</v>
+      </c>
+      <c r="K21" s="220" t="n">
+        <v>1020</v>
+      </c>
+      <c r="L21" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B21,"VLEV",A21,IF(LEN(A21)=4,"OF",))</f>
+        <v>T2VLEV2902A</v>
+      </c>
+      <c r="O21" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A21)</f>
+        <v>LaEstancia2902A</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="381" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" s="220" t="str">
+        <f aca="false">LEFT(A22)</f>
+        <v>2</v>
+      </c>
+      <c r="C22" s="388" t="s">
+        <v>636</v>
+      </c>
+      <c r="D22" s="388" t="str">
+        <f aca="false" t="array" ref="D22:D22">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E22" s="382" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G22" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H22" s="220" t="s">
+        <v>637</v>
+      </c>
+      <c r="I22" s="220" t="s">
+        <v>638</v>
+      </c>
+      <c r="J22" s="387" t="n">
+        <v>192168202159</v>
+      </c>
+      <c r="K22" s="220" t="n">
+        <v>1021</v>
+      </c>
+      <c r="L22" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B22,"VLEV",A22,IF(LEN(A22)=4,"OF",))</f>
+        <v>T2VLEV2902B</v>
+      </c>
+      <c r="O22" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A22)</f>
+        <v>LaEstancia2902B</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="381" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="220" t="str">
+        <f aca="false">LEFT(A23)</f>
+        <v>3</v>
+      </c>
+      <c r="C23" s="220" t="s">
+        <v>549</v>
+      </c>
+      <c r="D23" s="220" t="str">
+        <f aca="false" t="array" ref="D23:D23">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E23" s="382" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G23" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H23" s="220" t="s">
+        <v>639</v>
+      </c>
+      <c r="I23" s="220" t="s">
+        <v>640</v>
+      </c>
+      <c r="J23" s="387" t="n">
+        <v>192168202191</v>
+      </c>
+      <c r="K23" s="220" t="n">
+        <v>1022</v>
+      </c>
+      <c r="L23" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B23,"VLEV",A23,IF(LEN(A23)=4,"OF",))</f>
+        <v>T3VLEV3102A</v>
+      </c>
+      <c r="O23" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A23)</f>
+        <v>LaEstancia3102A</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="381" t="s">
+        <v>169</v>
+      </c>
+      <c r="B24" s="220" t="str">
+        <f aca="false">LEFT(A24)</f>
+        <v>3</v>
+      </c>
+      <c r="C24" s="220" t="s">
+        <v>641</v>
+      </c>
+      <c r="D24" s="220" t="str">
+        <f aca="false" t="array" ref="D24:D24">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E24" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G24" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H24" s="220" t="s">
+        <v>642</v>
+      </c>
+      <c r="I24" s="220" t="s">
+        <v>643</v>
+      </c>
+      <c r="J24" s="387" t="n">
+        <v>192168202223</v>
+      </c>
+      <c r="K24" s="220" t="n">
+        <v>1023</v>
+      </c>
+      <c r="L24" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B24,"VLEV",A24,IF(LEN(A24)=4,"OF",))</f>
+        <v>T3VLEV3102B</v>
+      </c>
+      <c r="O24" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A24)</f>
+        <v>LaEstancia3102B</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="381" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="220" t="str">
+        <f aca="false">LEFT(A25)</f>
+        <v>3</v>
+      </c>
+      <c r="C25" s="220" t="s">
+        <v>516</v>
+      </c>
+      <c r="D25" s="220" t="str">
+        <f aca="false" t="array" ref="D25:D25">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E25" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G25" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H25" s="220" t="s">
+        <v>644</v>
+      </c>
+      <c r="I25" s="220" t="s">
+        <v>645</v>
+      </c>
+      <c r="J25" s="387" t="n">
+        <v>192168202255</v>
+      </c>
+      <c r="K25" s="220" t="n">
+        <v>1024</v>
+      </c>
+      <c r="L25" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B25,"VLEV",A25,IF(LEN(A25)=4,"OF",))</f>
+        <v>T3VLEV3103A</v>
+      </c>
+      <c r="O25" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A25)</f>
+        <v>LaEstancia3103A</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="381" t="s">
+        <v>194</v>
+      </c>
+      <c r="B26" s="220" t="str">
+        <f aca="false">LEFT(A26)</f>
+        <v>3</v>
+      </c>
+      <c r="C26" s="220" t="s">
+        <v>550</v>
+      </c>
+      <c r="D26" s="220" t="str">
+        <f aca="false" t="array" ref="D26:D26">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E26" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G26" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H26" s="220" t="s">
+        <v>646</v>
+      </c>
+      <c r="I26" s="220" t="s">
+        <v>647</v>
+      </c>
+      <c r="J26" s="220" t="s">
+        <v>648</v>
+      </c>
+      <c r="K26" s="220" t="n">
+        <v>1025</v>
+      </c>
+      <c r="L26" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B26,"VLEV",A26,IF(LEN(A26)=4,"OF",))</f>
+        <v>T3VLEV3104A</v>
+      </c>
+      <c r="O26" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A26)</f>
+        <v>LaEstancia3104A</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="381" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="220" t="str">
+        <f aca="false">LEFT(A27)</f>
+        <v>3</v>
+      </c>
+      <c r="C27" s="220" t="s">
+        <v>551</v>
+      </c>
+      <c r="D27" s="220" t="str">
+        <f aca="false" t="array" ref="D27:D27">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E27" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G27" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H27" s="220" t="s">
+        <v>649</v>
+      </c>
+      <c r="I27" s="220" t="s">
+        <v>650</v>
+      </c>
+      <c r="J27" s="220" t="s">
+        <v>651</v>
+      </c>
+      <c r="K27" s="220" t="n">
+        <v>1026</v>
+      </c>
+      <c r="L27" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B27,"VLEV",A27,IF(LEN(A27)=4,"OF",))</f>
+        <v>T3VLEV3104B</v>
+      </c>
+      <c r="O27" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A27)</f>
+        <v>LaEstancia3104B</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="381" t="s">
+        <v>226</v>
+      </c>
+      <c r="B28" s="220" t="str">
+        <f aca="false">LEFT(A28)</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="220" t="s">
+        <v>652</v>
+      </c>
+      <c r="D28" s="220" t="str">
+        <f aca="false" t="array" ref="D28:D28">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E28" s="382" t="n">
+        <v>45774</v>
+      </c>
+      <c r="G28" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H28" s="220" t="s">
+        <v>653</v>
+      </c>
+      <c r="I28" s="220" t="s">
+        <v>654</v>
+      </c>
+      <c r="J28" s="220" t="s">
+        <v>655</v>
+      </c>
+      <c r="K28" s="220" t="n">
+        <v>1027</v>
+      </c>
+      <c r="L28" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B28,"VLEV",A28,IF(LEN(A28)=4,"OF",))</f>
+        <v>T3VLEV3306A</v>
+      </c>
+      <c r="O28" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A28)</f>
+        <v>LaEstancia3306A</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="381" t="s">
+        <v>232</v>
+      </c>
+      <c r="B29" s="220" t="str">
+        <f aca="false">LEFT(A29)</f>
+        <v>3</v>
+      </c>
+      <c r="C29" s="220" t="s">
+        <v>656</v>
+      </c>
+      <c r="D29" s="220" t="str">
+        <f aca="false" t="array" ref="D29:D29">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E29" s="382" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G29" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H29" s="220" t="s">
+        <v>657</v>
+      </c>
+      <c r="I29" s="220" t="s">
+        <v>658</v>
+      </c>
+      <c r="J29" s="387" t="n">
+        <v>192168203127</v>
+      </c>
+      <c r="K29" s="220" t="n">
+        <v>1028</v>
+      </c>
+      <c r="L29" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B29,"VLEV",A29,IF(LEN(A29)=4,"OF",))</f>
+        <v>T3VLEV3306B</v>
+      </c>
+      <c r="O29" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A29)</f>
+        <v>LaEstancia3306B</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="381" t="s">
+        <v>198</v>
+      </c>
+      <c r="B30" s="220" t="str">
+        <f aca="false">LEFT(A30)</f>
+        <v>3</v>
+      </c>
+      <c r="C30" s="220" t="s">
+        <v>552</v>
+      </c>
+      <c r="D30" s="220" t="str">
+        <f aca="false" t="array" ref="D30:D30">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E30" s="382" t="n">
+        <v>45775</v>
+      </c>
+      <c r="G30" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H30" s="220" t="s">
+        <v>659</v>
+      </c>
+      <c r="I30" s="220" t="s">
+        <v>660</v>
+      </c>
+      <c r="J30" s="387" t="n">
+        <v>192168203159</v>
+      </c>
+      <c r="K30" s="220" t="n">
+        <v>1029</v>
+      </c>
+      <c r="L30" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B30,"VLEV",A30,IF(LEN(A30)=4,"OF",))</f>
+        <v>T3VLEV3504A</v>
+      </c>
+      <c r="O30" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A30)</f>
+        <v>LaEstancia3504A</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="381" t="s">
+        <v>206</v>
+      </c>
+      <c r="B31" s="220" t="str">
+        <f aca="false">LEFT(A31)</f>
+        <v>3</v>
+      </c>
+      <c r="C31" s="220" t="s">
+        <v>661</v>
+      </c>
+      <c r="D31" s="220" t="str">
+        <f aca="false" t="array" ref="D31:D31">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E31" s="382" t="n">
+        <v>45775</v>
+      </c>
+      <c r="G31" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H31" s="220" t="s">
+        <v>662</v>
+      </c>
+      <c r="I31" s="220" t="s">
+        <v>663</v>
+      </c>
+      <c r="J31" s="387" t="n">
+        <v>192168203191</v>
+      </c>
+      <c r="K31" s="220" t="n">
+        <v>1030</v>
+      </c>
+      <c r="L31" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B31,"VLEV",A31,IF(LEN(A31)=4,"OF",))</f>
+        <v>T3VLEV3504B</v>
+      </c>
+      <c r="O31" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A31)</f>
+        <v>LaEstancia3504B</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="381" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="220" t="str">
+        <f aca="false">LEFT(A32)</f>
+        <v>3</v>
+      </c>
+      <c r="C32" s="220" t="s">
+        <v>664</v>
+      </c>
+      <c r="D32" s="220" t="str">
+        <f aca="false" t="array" ref="D32:D32">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E32" s="382" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G32" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H32" s="220" t="s">
+        <v>665</v>
+      </c>
+      <c r="I32" s="220" t="s">
+        <v>666</v>
+      </c>
+      <c r="J32" s="387" t="n">
+        <v>192168203223</v>
+      </c>
+      <c r="K32" s="220" t="n">
+        <v>1031</v>
+      </c>
+      <c r="L32" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B32,"VLEV",A32,IF(LEN(A32)=4,"OF",))</f>
+        <v>T3VLEV3603A</v>
+      </c>
+      <c r="O32" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A32)</f>
+        <v>LaEstancia3603A</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="381" t="s">
+        <v>174</v>
+      </c>
+      <c r="B33" s="220" t="str">
+        <f aca="false">LEFT(A33)</f>
+        <v>3</v>
+      </c>
+      <c r="C33" s="220" t="s">
+        <v>553</v>
+      </c>
+      <c r="D33" s="220" t="str">
+        <f aca="false" t="array" ref="D33:D33">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E33" s="382" t="n">
+        <v>45778</v>
+      </c>
+      <c r="G33" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H33" s="220" t="s">
+        <v>667</v>
+      </c>
+      <c r="I33" s="220" t="s">
+        <v>668</v>
+      </c>
+      <c r="J33" s="387" t="n">
+        <v>192168203255</v>
+      </c>
+      <c r="K33" s="220" t="n">
+        <v>1032</v>
+      </c>
+      <c r="L33" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B33,"VLEV",A33,IF(LEN(A33)=4,"OF",))</f>
+        <v>T3VLEV3603B</v>
+      </c>
+      <c r="O33" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A33)</f>
+        <v>LaEstancia3603B</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="381" t="s">
+        <v>191</v>
+      </c>
+      <c r="B34" s="220" t="str">
+        <f aca="false">LEFT(A34)</f>
+        <v>3</v>
+      </c>
+      <c r="C34" s="388" t="s">
+        <v>669</v>
+      </c>
+      <c r="D34" s="388" t="str">
+        <f aca="false" t="array" ref="D34:D34">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E34" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G34" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H34" s="220" t="s">
+        <v>670</v>
+      </c>
+      <c r="I34" s="220" t="s">
+        <v>671</v>
+      </c>
+      <c r="J34" s="220" t="s">
+        <v>672</v>
+      </c>
+      <c r="K34" s="220" t="n">
+        <v>1033</v>
+      </c>
+      <c r="L34" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B34,"VLEV",A34,IF(LEN(A34)=4,"OF",))</f>
+        <v>T3VLEV3604B</v>
+      </c>
+      <c r="O34" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A34)</f>
+        <v>LaEstancia3604B</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="381" t="s">
+        <v>199</v>
+      </c>
+      <c r="B35" s="220" t="str">
+        <f aca="false">LEFT(A35)</f>
+        <v>3</v>
+      </c>
+      <c r="C35" s="220" t="s">
+        <v>673</v>
+      </c>
+      <c r="D35" s="220" t="str">
+        <f aca="false" t="array" ref="D35:D35">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E35" s="382" t="n">
+        <v>45770</v>
+      </c>
+      <c r="G35" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H35" s="220" t="s">
+        <v>674</v>
+      </c>
+      <c r="I35" s="220" t="s">
+        <v>675</v>
+      </c>
+      <c r="J35" s="220" t="s">
+        <v>676</v>
+      </c>
+      <c r="K35" s="220" t="n">
+        <v>1034</v>
+      </c>
+      <c r="L35" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B35,"VLEV",A35,IF(LEN(A35)=4,"OF",))</f>
+        <v>T3VLEV3605A</v>
+      </c>
+      <c r="O35" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A35)</f>
+        <v>LaEstancia3605A</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="381" t="s">
+        <v>207</v>
+      </c>
+      <c r="B36" s="220" t="str">
+        <f aca="false">LEFT(A36)</f>
+        <v>3</v>
+      </c>
+      <c r="C36" s="220" t="s">
+        <v>677</v>
+      </c>
+      <c r="D36" s="220" t="str">
+        <f aca="false" t="array" ref="D36:D36">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E36" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G36" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H36" s="220" t="s">
+        <v>678</v>
+      </c>
+      <c r="I36" s="220" t="s">
+        <v>679</v>
+      </c>
+      <c r="J36" s="220" t="s">
+        <v>680</v>
+      </c>
+      <c r="K36" s="220" t="n">
+        <v>1035</v>
+      </c>
+      <c r="L36" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B36,"VLEV",A36,IF(LEN(A36)=4,"OF",))</f>
+        <v>T3VLEV3605B</v>
+      </c>
+      <c r="O36" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A36)</f>
+        <v>LaEstancia3605B</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="381" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37" s="220" t="str">
+        <f aca="false">LEFT(A37)</f>
+        <v>3</v>
+      </c>
+      <c r="C37" s="220" t="s">
+        <v>681</v>
+      </c>
+      <c r="D37" s="220" t="str">
+        <f aca="false" t="array" ref="D37:D37">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E37" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G37" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H37" s="220" t="s">
+        <v>682</v>
+      </c>
+      <c r="I37" s="220" t="s">
+        <v>683</v>
+      </c>
+      <c r="J37" s="387" t="n">
+        <v>192168204127</v>
+      </c>
+      <c r="K37" s="220" t="n">
+        <v>1036</v>
+      </c>
+      <c r="L37" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B37,"VLEV",A37,IF(LEN(A37)=4,"OF",))</f>
+        <v>T3VLEV3606A</v>
+      </c>
+      <c r="O37" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A37)</f>
+        <v>LaEstancia3606A</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="381" t="s">
+        <v>222</v>
+      </c>
+      <c r="B38" s="220" t="str">
+        <f aca="false">LEFT(A38)</f>
+        <v>3</v>
+      </c>
+      <c r="C38" s="220" t="s">
+        <v>684</v>
+      </c>
+      <c r="D38" s="220" t="str">
+        <f aca="false" t="array" ref="D38:D38">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E38" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G38" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H38" s="220" t="s">
+        <v>685</v>
+      </c>
+      <c r="I38" s="220" t="s">
+        <v>686</v>
+      </c>
+      <c r="J38" s="387" t="n">
+        <v>192168204159</v>
+      </c>
+      <c r="K38" s="220" t="n">
+        <v>1037</v>
+      </c>
+      <c r="L38" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B38,"VLEV",A38,IF(LEN(A38)=4,"OF",))</f>
+        <v>T3VLEV3606B</v>
+      </c>
+      <c r="O38" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A38)</f>
+        <v>LaEstancia3606B</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="381" t="s">
+        <v>229</v>
+      </c>
+      <c r="B39" s="220" t="str">
+        <f aca="false">LEFT(A39)</f>
+        <v>3</v>
+      </c>
+      <c r="C39" s="220" t="s">
+        <v>687</v>
+      </c>
+      <c r="D39" s="220" t="str">
+        <f aca="false" t="array" ref="D39:D39">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E39" s="382" t="n">
+        <v>45774</v>
+      </c>
+      <c r="G39" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H39" s="220" t="s">
+        <v>688</v>
+      </c>
+      <c r="I39" s="220" t="s">
+        <v>689</v>
+      </c>
+      <c r="J39" s="387" t="n">
+        <v>192168204191</v>
+      </c>
+      <c r="K39" s="220" t="n">
+        <v>1038</v>
+      </c>
+      <c r="L39" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B39,"VLEV",A39,IF(LEN(A39)=4,"OF",))</f>
+        <v>T3VLEV3607A</v>
+      </c>
+      <c r="O39" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A39)</f>
+        <v>LaEstancia3607A</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="381" t="s">
+        <v>235</v>
+      </c>
+      <c r="B40" s="220" t="str">
+        <f aca="false">LEFT(A40)</f>
+        <v>3</v>
+      </c>
+      <c r="C40" s="220" t="s">
+        <v>555</v>
+      </c>
+      <c r="D40" s="220" t="str">
+        <f aca="false" t="array" ref="D40:D40">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E40" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G40" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H40" s="220" t="s">
+        <v>690</v>
+      </c>
+      <c r="I40" s="220" t="s">
+        <v>691</v>
+      </c>
+      <c r="J40" s="387" t="n">
+        <v>192168204223</v>
+      </c>
+      <c r="K40" s="220" t="n">
+        <v>1039</v>
+      </c>
+      <c r="L40" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B40,"VLEV",A40,IF(LEN(A40)=4,"OF",))</f>
+        <v>T3VLEV3607B</v>
+      </c>
+      <c r="O40" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A40)</f>
+        <v>LaEstancia3607B</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="381" t="s">
+        <v>184</v>
+      </c>
+      <c r="B41" s="220" t="str">
+        <f aca="false">LEFT(A41)</f>
+        <v>3</v>
+      </c>
+      <c r="C41" s="220" t="s">
+        <v>558</v>
+      </c>
+      <c r="D41" s="220" t="str">
+        <f aca="false" t="array" ref="D41:D41">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E41" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G41" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H41" s="220" t="s">
+        <v>692</v>
+      </c>
+      <c r="I41" s="220" t="s">
+        <v>693</v>
+      </c>
+      <c r="J41" s="387" t="n">
+        <v>192168204255</v>
+      </c>
+      <c r="K41" s="220" t="n">
+        <v>1040</v>
+      </c>
+      <c r="L41" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B41,"VLEV",A41,IF(LEN(A41)=4,"OF",))</f>
+        <v>T3VLEV3705A</v>
+      </c>
+      <c r="O41" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A41)</f>
+        <v>LaEstancia3705A</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="381" t="s">
+        <v>192</v>
+      </c>
+      <c r="B42" s="220" t="str">
+        <f aca="false">LEFT(A42)</f>
+        <v>3</v>
+      </c>
+      <c r="C42" s="220" t="s">
+        <v>556</v>
+      </c>
+      <c r="D42" s="220" t="str">
+        <f aca="false" t="array" ref="D42:D42">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E42" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G42" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H42" s="220" t="s">
+        <v>694</v>
+      </c>
+      <c r="I42" s="220" t="s">
+        <v>695</v>
+      </c>
+      <c r="J42" s="220" t="s">
+        <v>696</v>
+      </c>
+      <c r="K42" s="220" t="n">
+        <v>1041</v>
+      </c>
+      <c r="L42" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B42,"VLEV",A42,IF(LEN(A42)=4,"OF",))</f>
+        <v>T3VLEV3705B</v>
+      </c>
+      <c r="O42" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A42)</f>
+        <v>LaEstancia3705B</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="381" t="s">
+        <v>200</v>
+      </c>
+      <c r="B43" s="220" t="str">
+        <f aca="false">LEFT(A43)</f>
+        <v>3</v>
+      </c>
+      <c r="C43" s="220" t="s">
+        <v>557</v>
+      </c>
+      <c r="D43" s="220" t="str">
+        <f aca="false" t="array" ref="D43:D43">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E43" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G43" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H43" s="220" t="s">
+        <v>697</v>
+      </c>
+      <c r="I43" s="220" t="s">
+        <v>698</v>
+      </c>
+      <c r="J43" s="220" t="s">
+        <v>699</v>
+      </c>
+      <c r="K43" s="220" t="n">
+        <v>1042</v>
+      </c>
+      <c r="L43" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B43,"VLEV",A43,IF(LEN(A43)=4,"OF",))</f>
+        <v>T3VLEV3706A</v>
+      </c>
+      <c r="O43" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A43)</f>
+        <v>LaEstancia3706A</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="381" t="s">
+        <v>208</v>
+      </c>
+      <c r="B44" s="220" t="str">
+        <f aca="false">LEFT(A44)</f>
+        <v>3</v>
+      </c>
+      <c r="C44" s="220" t="s">
+        <v>559</v>
+      </c>
+      <c r="D44" s="220" t="str">
+        <f aca="false" t="array" ref="D44:D44">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E44" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G44" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H44" s="220" t="s">
+        <v>700</v>
+      </c>
+      <c r="I44" s="220" t="s">
+        <v>701</v>
+      </c>
+      <c r="J44" s="220" t="s">
+        <v>702</v>
+      </c>
+      <c r="K44" s="220" t="n">
+        <v>1043</v>
+      </c>
+      <c r="L44" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B44,"VLEV",A44,IF(LEN(A44)=4,"OF",))</f>
+        <v>T3VLEV3706B</v>
+      </c>
+      <c r="O44" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A44)</f>
+        <v>LaEstancia3706B</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="381" t="s">
+        <v>216</v>
+      </c>
+      <c r="B45" s="220" t="str">
+        <f aca="false">LEFT(A45)</f>
+        <v>3</v>
+      </c>
+      <c r="C45" s="220" t="s">
+        <v>560</v>
+      </c>
+      <c r="D45" s="220" t="str">
+        <f aca="false" t="array" ref="D45:D45">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E45" s="382" t="n">
+        <v>45771</v>
+      </c>
+      <c r="G45" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H45" s="220" t="s">
+        <v>703</v>
+      </c>
+      <c r="I45" s="220" t="s">
+        <v>704</v>
+      </c>
+      <c r="J45" s="387" t="n">
+        <v>192168205127</v>
+      </c>
+      <c r="K45" s="220" t="n">
+        <v>1044</v>
+      </c>
+      <c r="L45" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B45,"VLEV",A45,IF(LEN(A45)=4,"OF",))</f>
+        <v>T3VLEV3707A</v>
+      </c>
+      <c r="O45" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A45)</f>
+        <v>LaEstancia3707A</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="381" t="s">
+        <v>223</v>
+      </c>
+      <c r="B46" s="220" t="str">
+        <f aca="false">LEFT(A46)</f>
+        <v>3</v>
+      </c>
+      <c r="C46" s="220" t="s">
+        <v>561</v>
+      </c>
+      <c r="D46" s="220" t="str">
+        <f aca="false" t="array" ref="D46:D46">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E46" s="382" t="n">
+        <v>45772</v>
+      </c>
+      <c r="G46" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H46" s="220" t="s">
+        <v>705</v>
+      </c>
+      <c r="I46" s="220" t="s">
+        <v>706</v>
+      </c>
+      <c r="J46" s="387" t="n">
+        <v>192168205159</v>
+      </c>
+      <c r="K46" s="220" t="n">
+        <v>1045</v>
+      </c>
+      <c r="L46" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B46,"VLEV",A46,IF(LEN(A46)=4,"OF",))</f>
+        <v>T3VLEV3707B</v>
+      </c>
+      <c r="O46" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A46)</f>
+        <v>LaEstancia3707B</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="381" t="s">
+        <v>168</v>
+      </c>
+      <c r="B47" s="220" t="str">
+        <f aca="false">LEFT(A47)</f>
+        <v>3</v>
+      </c>
+      <c r="C47" s="220" t="s">
+        <v>562</v>
+      </c>
+      <c r="D47" s="220" t="str">
+        <f aca="false" t="array" ref="D47:D47">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E47" s="382" t="n">
+        <v>45774</v>
+      </c>
+      <c r="G47" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H47" s="220" t="s">
+        <v>707</v>
+      </c>
+      <c r="I47" s="220" t="s">
+        <v>708</v>
+      </c>
+      <c r="J47" s="387" t="n">
+        <v>192168205191</v>
+      </c>
+      <c r="K47" s="220" t="n">
+        <v>1046</v>
+      </c>
+      <c r="L47" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B47,"VLEV",A47,IF(LEN(A47)=4,"OF",))</f>
+        <v>T3VLEV3805A</v>
+      </c>
+      <c r="O47" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A47)</f>
+        <v>LaEstancia3805A</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="381" t="s">
+        <v>176</v>
+      </c>
+      <c r="B48" s="220" t="str">
+        <f aca="false">LEFT(A48)</f>
+        <v>3</v>
+      </c>
+      <c r="C48" s="220" t="s">
+        <v>513</v>
+      </c>
+      <c r="D48" s="220" t="str">
+        <f aca="false" t="array" ref="D48:D48">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E48" s="382" t="n">
+        <v>45774</v>
+      </c>
+      <c r="G48" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H48" s="220" t="s">
+        <v>709</v>
+      </c>
+      <c r="I48" s="220" t="s">
+        <v>710</v>
+      </c>
+      <c r="J48" s="387" t="n">
+        <v>192168205223</v>
+      </c>
+      <c r="K48" s="220" t="n">
+        <v>1047</v>
+      </c>
+      <c r="L48" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B48,"VLEV",A48,IF(LEN(A48)=4,"OF",))</f>
+        <v>T3VLEV3805B</v>
+      </c>
+      <c r="O48" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A48)</f>
+        <v>LaEstancia3805B</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="381" t="s">
+        <v>185</v>
+      </c>
+      <c r="B49" s="220" t="str">
+        <f aca="false">LEFT(A49)</f>
+        <v>3</v>
+      </c>
+      <c r="C49" s="220" t="s">
+        <v>514</v>
+      </c>
+      <c r="D49" s="220" t="str">
+        <f aca="false" t="array" ref="D49:D49">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E49" s="382" t="n">
+        <v>45773</v>
+      </c>
+      <c r="G49" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H49" s="220" t="s">
+        <v>711</v>
+      </c>
+      <c r="I49" s="220" t="s">
+        <v>712</v>
+      </c>
+      <c r="J49" s="387" t="n">
+        <v>192168205255</v>
+      </c>
+      <c r="K49" s="220" t="n">
+        <v>1048</v>
+      </c>
+      <c r="L49" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B49,"VLEV",A49,IF(LEN(A49)=4,"OF",))</f>
+        <v>T3VLEV3806A</v>
+      </c>
+      <c r="O49" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A49)</f>
+        <v>LaEstancia3806A</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="381" t="s">
+        <v>193</v>
+      </c>
+      <c r="B50" s="220" t="str">
+        <f aca="false">LEFT(A50)</f>
+        <v>3</v>
+      </c>
+      <c r="C50" s="220" t="s">
+        <v>515</v>
+      </c>
+      <c r="D50" s="220" t="str">
+        <f aca="false" t="array" ref="D50:D50">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E50" s="382" t="n">
+        <v>45772</v>
+      </c>
+      <c r="G50" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H50" s="220" t="s">
+        <v>713</v>
+      </c>
+      <c r="I50" s="220" t="s">
+        <v>714</v>
+      </c>
+      <c r="J50" s="220" t="s">
+        <v>715</v>
+      </c>
+      <c r="K50" s="220" t="n">
+        <v>1049</v>
+      </c>
+      <c r="L50" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B50,"VLEV",A50,IF(LEN(A50)=4,"OF",))</f>
+        <v>T3VLEV3806B</v>
+      </c>
+      <c r="O50" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A50)</f>
+        <v>LaEstancia3806B</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="381" t="s">
+        <v>209</v>
+      </c>
+      <c r="B51" s="220" t="str">
+        <f aca="false">LEFT(A51)</f>
+        <v>3</v>
+      </c>
+      <c r="C51" s="220" t="s">
+        <v>517</v>
+      </c>
+      <c r="D51" s="220" t="str">
+        <f aca="false" t="array" ref="D51:D51">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E51" s="382" t="s">
+        <v>584</v>
+      </c>
+      <c r="G51" s="221" t="s">
+        <v>579</v>
+      </c>
+      <c r="H51" s="220" t="s">
+        <v>716</v>
+      </c>
+      <c r="I51" s="220" t="s">
+        <v>717</v>
+      </c>
+      <c r="J51" s="220" t="s">
+        <v>718</v>
+      </c>
+      <c r="K51" s="220" t="n">
+        <v>1050</v>
+      </c>
+      <c r="L51" s="386" t="str">
+        <f aca="false">_xlfn.CONCAT("T",B51,"VLEV",A51,IF(LEN(A51)=4,"OF",))</f>
+        <v>T3VLEV3807B</v>
+      </c>
+      <c r="O51" s="220" t="str">
+        <f aca="false">_xlfn.CONCAT("LaEstancia",A51)</f>
+        <v>LaEstancia3807B</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="381" t="s">
+        <v>719</v>
+      </c>
+      <c r="B52" s="220" t="str">
+        <f aca="false">LEFT(A52)</f>
+        <v>3</v>
+      </c>
+      <c r="D52" s="220" t="str">
+        <f aca="false" t="array" ref="D52:D52">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
+        <v>CNQ4KPPRY4</v>
+      </c>
+      <c r="E52" s="382"/>
+      <c r="F52" s="382"/>
+      <c r="G52" s="221"/>
+      <c r="H52" s="220" t="s">
+        <v>720</v>
+      </c>
+      <c r="I52" s="220" t="s">
+        <v>721</v>
+      </c>
+      <c r="J52" s="220" t="s">
+        <v>722</v>
+      </c>
+      <c r="K52" s="220" t="n">
+        <v>1051</v>
+      </c>
+      <c r="L52" s="386" t="n">
+        <v>123456789</v>
+      </c>
+      <c r="O52" s="220" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D53" s="220"/>
+      <c r="E53" s="382"/>
+      <c r="F53" s="382"/>
+      <c r="G53" s="221"/>
+      <c r="J53" s="387"/>
+      <c r="L53" s="386"/>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D54" s="220"/>
+      <c r="E54" s="382"/>
+      <c r="F54" s="382"/>
+      <c r="G54" s="221"/>
+      <c r="J54" s="387"/>
+      <c r="L54" s="386"/>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D55" s="220"/>
+      <c r="E55" s="382"/>
+      <c r="F55" s="382"/>
+      <c r="G55" s="221"/>
+      <c r="J55" s="387"/>
+      <c r="L55" s="386"/>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D56" s="220"/>
+      <c r="E56" s="382"/>
+      <c r="F56" s="382"/>
+      <c r="G56" s="221"/>
+      <c r="J56" s="387"/>
+      <c r="L56" s="386"/>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D57" s="220"/>
+      <c r="E57" s="382"/>
+      <c r="F57" s="382"/>
+      <c r="G57" s="221"/>
+      <c r="J57" s="387"/>
+      <c r="L57" s="386"/>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F58" s="221"/>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F59" s="221"/>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F60" s="221"/>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F61" s="221"/>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F62" s="221"/>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F63" s="221"/>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F64" s="221"/>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F65" s="221"/>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F66" s="221"/>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F67" s="221"/>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F68" s="221"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F69" s="221"/>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F70" s="221"/>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F71" s="221"/>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F72" s="221"/>
+    </row>
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F73" s="221"/>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F74" s="221"/>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F75" s="221"/>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F76" s="221"/>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F77" s="221"/>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F78" s="221"/>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F79" s="221"/>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F80" s="221"/>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F81" s="221"/>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F82" s="221"/>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F83" s="221"/>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F84" s="221"/>
+    </row>
+    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F85" s="221"/>
+    </row>
+    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F86" s="221"/>
+    </row>
+    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F87" s="221"/>
+    </row>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F88" s="221"/>
+    </row>
+    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F89" s="221"/>
+    </row>
+    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F90" s="221"/>
+    </row>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F91" s="221"/>
+    </row>
+    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F92" s="221"/>
+    </row>
+    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F93" s="221"/>
+    </row>
+    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F94" s="221"/>
+    </row>
+    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F95" s="221"/>
+    </row>
+    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F96" s="221"/>
+    </row>
+    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F97" s="221"/>
+    </row>
+    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F98" s="221"/>
+    </row>
+    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F99" s="221"/>
+    </row>
+    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F100" s="221"/>
+    </row>
+    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F101" s="221"/>
+    </row>
+    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F102" s="221"/>
+    </row>
+    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F103" s="221"/>
+    </row>
+    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F104" s="221"/>
+    </row>
+    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F105" s="221"/>
+    </row>
+    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F106" s="221"/>
+    </row>
+    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F107" s="221"/>
+    </row>
+    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F108" s="221"/>
+    </row>
+    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F109" s="221"/>
+    </row>
+    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F110" s="221"/>
+    </row>
+    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F111" s="221"/>
+    </row>
+    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F112" s="221"/>
+    </row>
+    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F113" s="221"/>
+    </row>
+    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F114" s="221"/>
+    </row>
+    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F115" s="221"/>
+    </row>
+    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F116" s="221"/>
+    </row>
+    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F117" s="221"/>
+    </row>
+    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F118" s="221"/>
+    </row>
+    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F119" s="221"/>
+    </row>
+    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F120" s="221"/>
+    </row>
+    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F121" s="221"/>
+    </row>
+    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F122" s="221"/>
+    </row>
+    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F123" s="221"/>
+    </row>
+    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F124" s="221"/>
+    </row>
+    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F125" s="221"/>
+    </row>
+    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F126" s="221"/>
+    </row>
+    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F127" s="221"/>
+    </row>
+    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F128" s="221"/>
+    </row>
+    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F129" s="221"/>
+    </row>
+    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F130" s="221"/>
+    </row>
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F131" s="221"/>
+    </row>
+    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F132" s="221"/>
+    </row>
+    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F133" s="221"/>
+    </row>
+    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F134" s="221"/>
+    </row>
+    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F135" s="221"/>
+    </row>
+    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F136" s="221"/>
+    </row>
+    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F137" s="221"/>
+    </row>
+    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F138" s="221"/>
+    </row>
+    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F139" s="221"/>
+    </row>
+    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F140" s="221"/>
+    </row>
+    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F141" s="221"/>
+    </row>
+    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F142" s="221"/>
+    </row>
+    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F143" s="221"/>
+    </row>
+    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F144" s="221"/>
+    </row>
+    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F145" s="221"/>
+    </row>
+    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F146" s="221"/>
+    </row>
+    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F147" s="221"/>
+    </row>
+    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F148" s="221"/>
+    </row>
+    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F149" s="221"/>
+    </row>
+    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F150" s="221"/>
+    </row>
+    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F151" s="221"/>
+    </row>
+    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F152" s="221"/>
+    </row>
+    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F153" s="221"/>
+    </row>
+    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F154" s="221"/>
+    </row>
+    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F155" s="221"/>
+    </row>
+    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F156" s="221"/>
+    </row>
+    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F157" s="221"/>
+    </row>
+    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F158" s="221"/>
+    </row>
+    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F159" s="221"/>
+    </row>
+    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F160" s="221"/>
+    </row>
+    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F161" s="221"/>
+    </row>
+    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F162" s="221"/>
+    </row>
+    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F163" s="221"/>
+    </row>
+    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F164" s="221"/>
+    </row>
+    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F165" s="221"/>
+    </row>
+    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F166" s="221"/>
+    </row>
+    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F167" s="221"/>
+    </row>
+    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F168" s="221"/>
+    </row>
+    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F169" s="221"/>
+    </row>
+    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F170" s="221"/>
+    </row>
+    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F171" s="221"/>
+    </row>
+    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F172" s="221"/>
+    </row>
+    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F173" s="221"/>
+    </row>
+    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F174" s="221"/>
+    </row>
+    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F175" s="221"/>
+    </row>
+    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F176" s="221"/>
+    </row>
+    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F177" s="221"/>
+    </row>
+    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F178" s="221"/>
+    </row>
+    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F179" s="221"/>
+    </row>
+    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F180" s="221"/>
+    </row>
+    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F181" s="221"/>
+    </row>
+    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F182" s="221"/>
+    </row>
+    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F183" s="221"/>
+    </row>
+    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F184" s="221"/>
+    </row>
+    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F185" s="221"/>
+    </row>
+    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F186" s="221"/>
+    </row>
+    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F187" s="221"/>
+    </row>
+    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F188" s="221"/>
+    </row>
+    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F189" s="221"/>
+    </row>
+    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F190" s="221"/>
+    </row>
+    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F191" s="221"/>
+    </row>
+    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F192" s="221"/>
+    </row>
+    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F193" s="221"/>
+    </row>
+    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F194" s="221"/>
+    </row>
+    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F195" s="221"/>
+    </row>
+    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F196" s="221"/>
+    </row>
+    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F197" s="221"/>
+    </row>
+    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F198" s="221"/>
+    </row>
+    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F199" s="221"/>
+    </row>
+    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F200" s="221"/>
+    </row>
+    <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F201" s="221"/>
+    </row>
+    <row r="202" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F202" s="221"/>
+    </row>
+    <row r="203" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F203" s="221"/>
+    </row>
+    <row r="204" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F204" s="221"/>
+    </row>
+    <row r="205" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F205" s="221"/>
+    </row>
+    <row r="206" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F206" s="221"/>
+    </row>
+    <row r="207" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F207" s="221"/>
+    </row>
+    <row r="208" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F208" s="221"/>
+    </row>
+    <row r="209" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F209" s="221"/>
+    </row>
+    <row r="210" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F210" s="221"/>
+    </row>
+    <row r="211" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F211" s="221"/>
+    </row>
+    <row r="212" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F212" s="221"/>
+    </row>
+    <row r="213" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F213" s="221"/>
+    </row>
+    <row r="214" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F214" s="221"/>
+    </row>
+    <row r="215" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F215" s="221"/>
+    </row>
+    <row r="216" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F216" s="221"/>
+    </row>
+    <row r="217" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F217" s="221"/>
+    </row>
+    <row r="218" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F218" s="221"/>
+    </row>
+    <row r="219" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F219" s="221"/>
+    </row>
+    <row r="220" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F220" s="221"/>
+    </row>
+    <row r="221" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F221" s="221"/>
+    </row>
+    <row r="222" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F222" s="221"/>
+    </row>
+    <row r="223" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F223" s="221"/>
+    </row>
+    <row r="224" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F224" s="221"/>
+    </row>
+    <row r="225" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F225" s="221"/>
+    </row>
+    <row r="226" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F226" s="221"/>
+    </row>
+    <row r="227" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F227" s="221"/>
+    </row>
+    <row r="228" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F228" s="221"/>
+    </row>
+    <row r="229" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F229" s="221"/>
+    </row>
+    <row r="230" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F230" s="221"/>
+    </row>
+    <row r="231" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F231" s="221"/>
+    </row>
+    <row r="232" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F232" s="221"/>
+    </row>
+    <row r="233" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F233" s="221"/>
+    </row>
+    <row r="234" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F234" s="221"/>
+    </row>
+    <row r="235" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F235" s="221"/>
+    </row>
+    <row r="236" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F236" s="221"/>
+    </row>
+    <row r="237" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F237" s="221"/>
+    </row>
+    <row r="238" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F238" s="221"/>
+    </row>
+    <row r="239" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F239" s="221"/>
+    </row>
+    <row r="240" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F240" s="221"/>
+    </row>
+    <row r="241" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F241" s="221"/>
+    </row>
+    <row r="242" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F242" s="221"/>
+    </row>
+    <row r="243" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F243" s="221"/>
+    </row>
+    <row r="244" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F244" s="221"/>
+    </row>
+    <row r="245" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F245" s="221"/>
+    </row>
+    <row r="246" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F246" s="221"/>
+    </row>
+    <row r="247" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F247" s="221"/>
+    </row>
+    <row r="248" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F248" s="221"/>
+    </row>
+    <row r="249" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F249" s="221"/>
+    </row>
+    <row r="250" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F250" s="221"/>
+    </row>
+    <row r="251" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F251" s="221"/>
+    </row>
+    <row r="252" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F252" s="221"/>
+    </row>
+    <row r="253" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F253" s="221"/>
+    </row>
+    <row r="254" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F254" s="221"/>
+    </row>
+    <row r="255" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F255" s="221"/>
+    </row>
+    <row r="256" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F256" s="221"/>
+    </row>
+    <row r="257" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F257" s="221"/>
+    </row>
+    <row r="258" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F258" s="221"/>
+    </row>
+    <row r="259" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F259" s="221"/>
+    </row>
+    <row r="260" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F260" s="221"/>
+    </row>
+    <row r="261" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F261" s="221"/>
+    </row>
+    <row r="262" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F262" s="221"/>
+    </row>
+    <row r="263" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F263" s="221"/>
+    </row>
+    <row r="264" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F264" s="221"/>
+    </row>
+    <row r="265" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F265" s="221"/>
+    </row>
+    <row r="266" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F266" s="221"/>
+    </row>
+    <row r="267" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F267" s="221"/>
+    </row>
+    <row r="268" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F268" s="221"/>
+    </row>
+    <row r="269" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F269" s="221"/>
+    </row>
+    <row r="270" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F270" s="221"/>
+    </row>
+    <row r="271" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F271" s="221"/>
+    </row>
+    <row r="272" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F272" s="221"/>
+    </row>
+    <row r="273" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F273" s="221"/>
+    </row>
+    <row r="274" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F274" s="221"/>
+    </row>
+    <row r="275" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F275" s="221"/>
+    </row>
+    <row r="276" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F276" s="221"/>
+    </row>
+    <row r="277" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F277" s="221"/>
+    </row>
+    <row r="278" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F278" s="221"/>
+    </row>
+    <row r="279" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F279" s="221"/>
+    </row>
+    <row r="280" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F280" s="221"/>
+    </row>
+    <row r="281" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F281" s="221"/>
+    </row>
+    <row r="282" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F282" s="221"/>
+    </row>
+    <row r="283" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F283" s="221"/>
+    </row>
+    <row r="284" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F284" s="221"/>
+    </row>
+    <row r="285" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F285" s="221"/>
+    </row>
+    <row r="286" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F286" s="221"/>
+    </row>
+    <row r="287" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F287" s="221"/>
+    </row>
+    <row r="288" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F288" s="221"/>
+    </row>
+    <row r="289" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F289" s="221"/>
+    </row>
+    <row r="290" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F290" s="221"/>
+    </row>
+    <row r="291" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F291" s="221"/>
+    </row>
+    <row r="292" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F292" s="221"/>
+    </row>
+    <row r="293" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F293" s="221"/>
+    </row>
+    <row r="294" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F294" s="221"/>
+    </row>
+    <row r="295" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F295" s="221"/>
+    </row>
+    <row r="296" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F296" s="221"/>
+    </row>
+    <row r="297" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F297" s="221"/>
+    </row>
+    <row r="298" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F298" s="221"/>
+    </row>
+    <row r="299" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F299" s="221"/>
+    </row>
+    <row r="300" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F300" s="221"/>
+    </row>
+    <row r="301" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F301" s="221"/>
+    </row>
+    <row r="302" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F302" s="221"/>
+    </row>
+    <row r="303" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F303" s="221"/>
+    </row>
+    <row r="304" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F304" s="221"/>
+    </row>
+    <row r="305" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F305" s="221"/>
+    </row>
+    <row r="306" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F306" s="221"/>
+    </row>
+    <row r="307" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F307" s="221"/>
+    </row>
+    <row r="308" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F308" s="221"/>
+    </row>
+    <row r="309" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F309" s="221"/>
+    </row>
+    <row r="310" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F310" s="221"/>
+    </row>
+    <row r="311" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F311" s="221"/>
+    </row>
+    <row r="312" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F312" s="221"/>
+    </row>
+    <row r="313" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F313" s="221"/>
+    </row>
+    <row r="314" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F314" s="221"/>
+    </row>
+    <row r="315" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F315" s="221"/>
+    </row>
+    <row r="316" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F316" s="221"/>
+    </row>
+    <row r="317" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F317" s="221"/>
+    </row>
+    <row r="318" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F318" s="221"/>
+    </row>
+    <row r="319" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F319" s="221"/>
+    </row>
+    <row r="320" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F320" s="221"/>
+    </row>
+    <row r="321" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F321" s="221"/>
+    </row>
+    <row r="322" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F322" s="221"/>
+    </row>
+    <row r="323" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F323" s="221"/>
+    </row>
+    <row r="324" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F324" s="221"/>
+    </row>
+    <row r="325" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F325" s="221"/>
+    </row>
+    <row r="326" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F326" s="221"/>
+    </row>
+    <row r="327" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F327" s="221"/>
+    </row>
+    <row r="328" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F328" s="221"/>
+    </row>
+    <row r="329" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F329" s="221"/>
+    </row>
+    <row r="330" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F330" s="221"/>
+    </row>
+    <row r="331" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F331" s="221"/>
+    </row>
+    <row r="332" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F332" s="221"/>
+    </row>
+    <row r="333" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F333" s="221"/>
+    </row>
+    <row r="334" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F334" s="221"/>
+    </row>
+    <row r="335" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F335" s="221"/>
+    </row>
+    <row r="336" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F336" s="221"/>
+    </row>
+    <row r="337" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F337" s="221"/>
+    </row>
+    <row r="338" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F338" s="221"/>
+    </row>
+    <row r="339" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F339" s="221"/>
+    </row>
+    <row r="340" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F340" s="221"/>
+    </row>
+    <row r="341" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F341" s="221"/>
+    </row>
+    <row r="342" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F342" s="221"/>
+    </row>
+    <row r="343" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F343" s="221"/>
+    </row>
+    <row r="344" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F344" s="221"/>
+    </row>
+    <row r="345" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F345" s="221"/>
+    </row>
+    <row r="346" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F346" s="221"/>
+    </row>
+    <row r="347" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F347" s="221"/>
+    </row>
+    <row r="348" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F348" s="221"/>
+    </row>
+    <row r="349" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F349" s="221"/>
+    </row>
+    <row r="350" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F350" s="221"/>
+    </row>
+    <row r="351" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F351" s="221"/>
+    </row>
+    <row r="352" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F352" s="221"/>
+    </row>
+    <row r="353" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F353" s="221"/>
+    </row>
+    <row r="354" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F354" s="221"/>
+    </row>
+    <row r="355" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F355" s="221"/>
+    </row>
+    <row r="356" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F356" s="221"/>
+    </row>
+    <row r="357" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F357" s="221"/>
+    </row>
+    <row r="358" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F358" s="221"/>
+    </row>
+    <row r="359" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F359" s="221"/>
+    </row>
+    <row r="360" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F360" s="221"/>
+    </row>
+    <row r="361" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F361" s="221"/>
+    </row>
+    <row r="362" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F362" s="221"/>
+    </row>
+    <row r="363" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F363" s="221"/>
+    </row>
+    <row r="364" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F364" s="221"/>
+    </row>
+    <row r="365" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F365" s="221"/>
+    </row>
+    <row r="366" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F366" s="221"/>
+    </row>
+    <row r="367" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F367" s="221"/>
+    </row>
+    <row r="368" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F368" s="221"/>
+    </row>
+    <row r="369" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F369" s="221"/>
+    </row>
+    <row r="370" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F370" s="221"/>
+    </row>
+    <row r="371" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F371" s="221"/>
+    </row>
+    <row r="372" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F372" s="221"/>
+    </row>
+    <row r="373" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F373" s="221"/>
+    </row>
+    <row r="374" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F374" s="221"/>
+    </row>
+    <row r="375" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F375" s="221"/>
+    </row>
+    <row r="376" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F376" s="221"/>
+    </row>
+    <row r="377" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F377" s="221"/>
+    </row>
+    <row r="378" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F378" s="221"/>
+    </row>
+    <row r="379" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F379" s="221"/>
+    </row>
+    <row r="380" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F380" s="221"/>
+    </row>
+    <row r="381" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F381" s="221"/>
+    </row>
+    <row r="382" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F382" s="221"/>
+    </row>
+    <row r="383" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F383" s="221"/>
+    </row>
+    <row r="384" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F384" s="221"/>
+    </row>
+    <row r="385" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F385" s="221"/>
+    </row>
+    <row r="386" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F386" s="221"/>
+    </row>
+    <row r="387" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F387" s="221"/>
+    </row>
+    <row r="388" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F388" s="221"/>
+    </row>
+    <row r="389" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F389" s="221"/>
+    </row>
+    <row r="390" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F390" s="221"/>
+    </row>
+    <row r="391" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F391" s="221"/>
+    </row>
+    <row r="392" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F392" s="221"/>
+    </row>
+    <row r="393" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F393" s="221"/>
+    </row>
+    <row r="394" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F394" s="221"/>
+    </row>
+    <row r="395" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F395" s="221"/>
+    </row>
+    <row r="396" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F396" s="221"/>
+    </row>
+    <row r="397" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F397" s="221"/>
+    </row>
+    <row r="398" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F398" s="221"/>
+    </row>
+    <row r="399" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F399" s="221"/>
+    </row>
+    <row r="400" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F400" s="221"/>
+    </row>
+    <row r="401" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F401" s="221"/>
+    </row>
+    <row r="402" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F402" s="221"/>
+    </row>
+    <row r="403" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F403" s="221"/>
+    </row>
+    <row r="404" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F404" s="221"/>
+    </row>
+    <row r="405" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F405" s="221"/>
+    </row>
+    <row r="406" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F406" s="221"/>
+    </row>
+    <row r="407" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F407" s="221"/>
+    </row>
+    <row r="408" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F408" s="221"/>
+    </row>
+    <row r="409" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F409" s="221"/>
+    </row>
+    <row r="410" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F410" s="221"/>
+    </row>
+    <row r="411" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F411" s="221"/>
+    </row>
+    <row r="412" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F412" s="221"/>
+    </row>
+    <row r="413" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F413" s="221"/>
+    </row>
+    <row r="414" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F414" s="221"/>
+    </row>
+    <row r="415" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F415" s="221"/>
+    </row>
+    <row r="416" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F416" s="221"/>
+    </row>
+    <row r="417" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F417" s="221"/>
+    </row>
+    <row r="418" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F418" s="221"/>
+    </row>
+    <row r="419" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F419" s="221"/>
+    </row>
+    <row r="420" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F420" s="221"/>
+    </row>
+    <row r="421" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F421" s="221"/>
+    </row>
+    <row r="422" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F422" s="221"/>
+    </row>
+    <row r="423" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F423" s="221"/>
+    </row>
+    <row r="424" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F424" s="221"/>
+    </row>
+    <row r="425" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F425" s="221"/>
+    </row>
+    <row r="426" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F426" s="221"/>
+    </row>
+    <row r="427" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F427" s="221"/>
+    </row>
+    <row r="428" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F428" s="221"/>
+    </row>
+    <row r="429" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F429" s="221"/>
+    </row>
+    <row r="430" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F430" s="221"/>
+    </row>
+    <row r="431" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F431" s="221"/>
+    </row>
+    <row r="432" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F432" s="221"/>
+    </row>
+    <row r="433" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F433" s="221"/>
+    </row>
+    <row r="434" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F434" s="221"/>
+    </row>
+    <row r="435" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F435" s="221"/>
+    </row>
+    <row r="436" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F436" s="221"/>
+    </row>
+    <row r="437" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F437" s="221"/>
+    </row>
+    <row r="438" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F438" s="221"/>
+    </row>
+    <row r="439" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F439" s="221"/>
+    </row>
+    <row r="440" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F440" s="221"/>
+    </row>
+    <row r="441" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F441" s="221"/>
+    </row>
+    <row r="442" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F442" s="221"/>
+    </row>
+    <row r="443" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F443" s="221"/>
+    </row>
+    <row r="444" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F444" s="221"/>
+    </row>
+    <row r="445" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F445" s="221"/>
+    </row>
+    <row r="446" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F446" s="221"/>
+    </row>
+    <row r="447" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F447" s="221"/>
+    </row>
+    <row r="448" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F448" s="221"/>
+    </row>
+    <row r="449" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F449" s="221"/>
+    </row>
+    <row r="450" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F450" s="221"/>
+    </row>
+    <row r="451" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F451" s="221"/>
+    </row>
+    <row r="452" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F452" s="221"/>
+    </row>
+    <row r="453" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F453" s="221"/>
+    </row>
+    <row r="454" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F454" s="221"/>
+    </row>
+    <row r="455" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F455" s="221"/>
+    </row>
+    <row r="456" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F456" s="221"/>
+    </row>
+    <row r="457" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F457" s="221"/>
+    </row>
+    <row r="458" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F458" s="221"/>
+    </row>
+    <row r="459" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F459" s="221"/>
+    </row>
+    <row r="460" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F460" s="221"/>
+    </row>
+    <row r="461" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F461" s="221"/>
+    </row>
+    <row r="462" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F462" s="221"/>
+    </row>
+    <row r="463" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F463" s="221"/>
+    </row>
+    <row r="464" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F464" s="221"/>
+    </row>
+    <row r="465" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F465" s="221"/>
+    </row>
+    <row r="466" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F466" s="221"/>
+    </row>
+    <row r="467" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F467" s="221"/>
+    </row>
+    <row r="468" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F468" s="221"/>
+    </row>
+    <row r="469" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F469" s="221"/>
+    </row>
+    <row r="470" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F470" s="221"/>
+    </row>
+    <row r="471" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F471" s="221"/>
+    </row>
+    <row r="472" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F472" s="221"/>
+    </row>
+    <row r="473" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F473" s="221"/>
+    </row>
+    <row r="474" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F474" s="221"/>
+    </row>
+    <row r="475" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F475" s="221"/>
+    </row>
+    <row r="476" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F476" s="221"/>
+    </row>
+    <row r="477" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F477" s="221"/>
+    </row>
+    <row r="478" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F478" s="221"/>
+    </row>
+    <row r="479" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F479" s="221"/>
+    </row>
+    <row r="480" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F480" s="221"/>
+    </row>
+    <row r="481" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F481" s="221"/>
+    </row>
+    <row r="482" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F482" s="221"/>
+    </row>
+    <row r="483" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F483" s="221"/>
+    </row>
+    <row r="484" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F484" s="221"/>
+    </row>
+    <row r="485" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F485" s="221"/>
+    </row>
+    <row r="486" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F486" s="221"/>
+    </row>
+    <row r="487" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F487" s="221"/>
+    </row>
+    <row r="488" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F488" s="221"/>
+    </row>
+    <row r="489" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F489" s="221"/>
+    </row>
+    <row r="490" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F490" s="221"/>
+    </row>
+    <row r="491" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F491" s="221"/>
+    </row>
+    <row r="492" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F492" s="221"/>
+    </row>
+    <row r="493" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F493" s="221"/>
+    </row>
+    <row r="494" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F494" s="221"/>
+    </row>
+    <row r="495" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F495" s="221"/>
+    </row>
+    <row r="496" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F496" s="221"/>
+    </row>
+    <row r="497" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F497" s="221"/>
+    </row>
+    <row r="498" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F498" s="221"/>
+    </row>
+    <row r="499" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F499" s="221"/>
+    </row>
+    <row r="500" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F500" s="221"/>
+    </row>
+    <row r="501" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F501" s="221"/>
+    </row>
+    <row r="502" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F502" s="221"/>
+    </row>
+    <row r="503" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F503" s="221"/>
+    </row>
+    <row r="504" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F504" s="221"/>
+    </row>
+    <row r="505" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F505" s="221"/>
+    </row>
+    <row r="506" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F506" s="221"/>
+    </row>
+    <row r="507" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F507" s="221"/>
+    </row>
+    <row r="508" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F508" s="221"/>
+    </row>
+    <row r="509" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F509" s="221"/>
+    </row>
+    <row r="510" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F510" s="221"/>
+    </row>
+    <row r="511" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F511" s="221"/>
+    </row>
+    <row r="512" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F512" s="221"/>
+    </row>
+    <row r="513" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F513" s="221"/>
+    </row>
+    <row r="514" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F514" s="221"/>
+    </row>
+    <row r="515" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F515" s="221"/>
+    </row>
+    <row r="516" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F516" s="221"/>
+    </row>
+    <row r="517" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F517" s="221"/>
+    </row>
+    <row r="518" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F518" s="221"/>
+    </row>
+    <row r="519" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F519" s="221"/>
+    </row>
+    <row r="520" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F520" s="221"/>
+    </row>
+    <row r="521" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F521" s="221"/>
+    </row>
+    <row r="522" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F522" s="221"/>
+    </row>
+    <row r="523" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F523" s="221"/>
+    </row>
+    <row r="524" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F524" s="221"/>
+    </row>
+    <row r="525" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F525" s="221"/>
+    </row>
+    <row r="526" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F526" s="221"/>
+    </row>
+    <row r="527" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F527" s="221"/>
+    </row>
+    <row r="528" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F528" s="221"/>
+    </row>
+    <row r="529" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F529" s="221"/>
+    </row>
+    <row r="530" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F530" s="221"/>
+    </row>
+    <row r="531" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F531" s="221"/>
+    </row>
+    <row r="532" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F532" s="221"/>
+    </row>
+    <row r="533" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F533" s="221"/>
+    </row>
+    <row r="534" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F534" s="221"/>
+    </row>
+    <row r="535" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F535" s="221"/>
+    </row>
+    <row r="536" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F536" s="221"/>
+    </row>
+    <row r="537" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F537" s="221"/>
+    </row>
+    <row r="538" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F538" s="221"/>
+    </row>
+    <row r="539" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F539" s="221"/>
+    </row>
+    <row r="540" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F540" s="221"/>
+    </row>
+    <row r="541" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F541" s="221"/>
+    </row>
+    <row r="542" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F542" s="221"/>
+    </row>
+    <row r="543" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F543" s="221"/>
+    </row>
+    <row r="544" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F544" s="221"/>
+    </row>
+    <row r="545" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F545" s="221"/>
+    </row>
+    <row r="546" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F546" s="221"/>
+    </row>
+    <row r="547" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F547" s="221"/>
+    </row>
+    <row r="548" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F548" s="221"/>
+    </row>
+    <row r="549" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F549" s="221"/>
+    </row>
+    <row r="550" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F550" s="221"/>
+    </row>
+    <row r="551" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F551" s="221"/>
+    </row>
+    <row r="552" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F552" s="221"/>
+    </row>
+    <row r="553" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F553" s="221"/>
+    </row>
+    <row r="554" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F554" s="221"/>
+    </row>
+    <row r="555" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F555" s="221"/>
+    </row>
+    <row r="556" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F556" s="221"/>
+    </row>
+    <row r="557" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F557" s="221"/>
+    </row>
+    <row r="558" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F558" s="221"/>
+    </row>
+    <row r="559" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F559" s="221"/>
+    </row>
+    <row r="560" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F560" s="221"/>
+    </row>
+    <row r="561" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F561" s="221"/>
+    </row>
+    <row r="562" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F562" s="221"/>
+    </row>
+    <row r="563" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F563" s="221"/>
+    </row>
+    <row r="564" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F564" s="221"/>
+    </row>
+    <row r="565" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F565" s="221"/>
+    </row>
+    <row r="566" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F566" s="221"/>
+    </row>
+    <row r="567" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F567" s="221"/>
+    </row>
+    <row r="568" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F568" s="221"/>
+    </row>
+    <row r="569" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F569" s="221"/>
+    </row>
+    <row r="570" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F570" s="221"/>
+    </row>
+    <row r="571" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F571" s="221"/>
+    </row>
+    <row r="572" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F572" s="221"/>
+    </row>
+    <row r="573" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F573" s="221"/>
+    </row>
+    <row r="574" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F574" s="221"/>
+    </row>
+    <row r="575" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F575" s="221"/>
+    </row>
+    <row r="576" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F576" s="221"/>
+    </row>
+    <row r="577" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F577" s="221"/>
+    </row>
+    <row r="578" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F578" s="221"/>
+    </row>
+    <row r="579" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F579" s="221"/>
+    </row>
+    <row r="580" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F580" s="221"/>
+    </row>
+    <row r="581" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F581" s="221"/>
+    </row>
+    <row r="582" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F582" s="221"/>
+    </row>
+    <row r="583" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F583" s="221"/>
+    </row>
+    <row r="584" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F584" s="221"/>
+    </row>
+    <row r="585" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F585" s="221"/>
+    </row>
+    <row r="586" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F586" s="221"/>
+    </row>
+    <row r="587" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F587" s="221"/>
+    </row>
+    <row r="588" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F588" s="221"/>
+    </row>
+    <row r="589" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F589" s="221"/>
+    </row>
+    <row r="590" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F590" s="221"/>
+    </row>
+    <row r="591" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F591" s="221"/>
+    </row>
+    <row r="592" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F592" s="221"/>
+    </row>
+    <row r="593" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F593" s="221"/>
+    </row>
+    <row r="594" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F594" s="221"/>
+    </row>
+    <row r="595" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F595" s="221"/>
+    </row>
+    <row r="596" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F596" s="221"/>
+    </row>
+    <row r="597" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F597" s="221"/>
+    </row>
+    <row r="598" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F598" s="221"/>
+    </row>
+    <row r="599" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F599" s="221"/>
+    </row>
+    <row r="600" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F600" s="221"/>
+    </row>
+    <row r="601" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F601" s="221"/>
+    </row>
+    <row r="602" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F602" s="221"/>
+    </row>
+    <row r="603" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F603" s="221"/>
+    </row>
+    <row r="604" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F604" s="221"/>
+    </row>
+    <row r="605" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F605" s="221"/>
+    </row>
+    <row r="606" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F606" s="221"/>
+    </row>
+    <row r="607" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F607" s="221"/>
+    </row>
+    <row r="608" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F608" s="221"/>
+    </row>
+    <row r="609" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F609" s="221"/>
+    </row>
+    <row r="610" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F610" s="221"/>
+    </row>
+    <row r="611" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F611" s="221"/>
+    </row>
+    <row r="612" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F612" s="221"/>
+    </row>
+    <row r="613" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F613" s="221"/>
+    </row>
+    <row r="614" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F614" s="221"/>
+    </row>
+    <row r="615" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F615" s="221"/>
+    </row>
+    <row r="616" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F616" s="221"/>
+    </row>
+    <row r="617" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F617" s="221"/>
+    </row>
+    <row r="618" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F618" s="221"/>
+    </row>
+    <row r="619" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F619" s="221"/>
+    </row>
+    <row r="620" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F620" s="221"/>
+    </row>
+    <row r="621" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F621" s="221"/>
+    </row>
+    <row r="622" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F622" s="221"/>
+    </row>
+    <row r="623" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F623" s="221"/>
+    </row>
+    <row r="624" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F624" s="221"/>
+    </row>
+    <row r="625" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F625" s="221"/>
+    </row>
+    <row r="626" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F626" s="221"/>
+    </row>
+    <row r="627" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F627" s="221"/>
+    </row>
+    <row r="628" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F628" s="221"/>
+    </row>
+    <row r="629" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F629" s="221"/>
+    </row>
+    <row r="630" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F630" s="221"/>
+    </row>
+    <row r="631" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F631" s="221"/>
+    </row>
+    <row r="632" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F632" s="221"/>
+    </row>
+    <row r="633" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F633" s="221"/>
+    </row>
+    <row r="634" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F634" s="221"/>
+    </row>
+    <row r="635" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F635" s="221"/>
+    </row>
+    <row r="636" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F636" s="221"/>
+    </row>
+    <row r="637" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F637" s="221"/>
+    </row>
+    <row r="638" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F638" s="221"/>
+    </row>
+    <row r="639" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F639" s="221"/>
+    </row>
+    <row r="640" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F640" s="221"/>
+    </row>
+    <row r="641" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F641" s="221"/>
+    </row>
+    <row r="642" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F642" s="221"/>
+    </row>
+    <row r="643" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F643" s="221"/>
+    </row>
+    <row r="644" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F644" s="221"/>
+    </row>
+    <row r="645" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F645" s="221"/>
+    </row>
+    <row r="646" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F646" s="221"/>
+    </row>
+    <row r="647" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F647" s="221"/>
+    </row>
+    <row r="648" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F648" s="221"/>
+    </row>
+    <row r="649" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F649" s="221"/>
+    </row>
+    <row r="650" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F650" s="221"/>
+    </row>
+    <row r="651" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F651" s="221"/>
+    </row>
+    <row r="652" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F652" s="221"/>
+    </row>
+    <row r="653" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F653" s="221"/>
+    </row>
+    <row r="654" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F654" s="221"/>
+    </row>
+    <row r="655" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F655" s="221"/>
+    </row>
+    <row r="656" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F656" s="221"/>
+    </row>
+    <row r="657" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F657" s="221"/>
+    </row>
+    <row r="658" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F658" s="221"/>
+    </row>
+    <row r="659" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F659" s="221"/>
+    </row>
+    <row r="660" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F660" s="221"/>
+    </row>
+    <row r="661" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F661" s="221"/>
+    </row>
+    <row r="662" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F662" s="221"/>
+    </row>
+    <row r="663" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F663" s="221"/>
+    </row>
+    <row r="664" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F664" s="221"/>
+    </row>
+    <row r="665" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F665" s="221"/>
+    </row>
+    <row r="666" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F666" s="221"/>
+    </row>
+    <row r="667" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F667" s="221"/>
+    </row>
+    <row r="668" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F668" s="221"/>
+    </row>
+    <row r="669" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F669" s="221"/>
+    </row>
+    <row r="670" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F670" s="221"/>
+    </row>
+    <row r="671" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F671" s="221"/>
+    </row>
+    <row r="672" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F672" s="221"/>
+    </row>
+    <row r="673" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F673" s="221"/>
+    </row>
+    <row r="674" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F674" s="221"/>
+    </row>
+    <row r="675" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F675" s="221"/>
+    </row>
+    <row r="676" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F676" s="221"/>
+    </row>
+    <row r="677" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F677" s="221"/>
+    </row>
+    <row r="678" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F678" s="221"/>
+    </row>
+    <row r="679" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F679" s="221"/>
+    </row>
+    <row r="680" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F680" s="221"/>
+    </row>
+    <row r="681" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F681" s="221"/>
+    </row>
+    <row r="682" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F682" s="221"/>
+    </row>
+    <row r="683" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F683" s="221"/>
+    </row>
+    <row r="684" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F684" s="221"/>
+    </row>
+    <row r="685" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F685" s="221"/>
+    </row>
+    <row r="686" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F686" s="221"/>
+    </row>
+    <row r="687" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F687" s="221"/>
+    </row>
+    <row r="688" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F688" s="221"/>
+    </row>
+    <row r="689" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F689" s="221"/>
+    </row>
+    <row r="690" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F690" s="221"/>
+    </row>
+    <row r="691" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F691" s="221"/>
+    </row>
+    <row r="692" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F692" s="221"/>
+    </row>
+    <row r="693" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F693" s="221"/>
+    </row>
+    <row r="694" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F694" s="221"/>
+    </row>
+    <row r="695" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F695" s="221"/>
+    </row>
+    <row r="696" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F696" s="221"/>
+    </row>
+    <row r="697" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F697" s="221"/>
+    </row>
+    <row r="698" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F698" s="221"/>
+    </row>
+    <row r="699" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F699" s="221"/>
+    </row>
+    <row r="700" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F700" s="221"/>
+    </row>
+    <row r="701" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F701" s="221"/>
+    </row>
+    <row r="702" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F702" s="221"/>
+    </row>
+    <row r="703" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F703" s="221"/>
+    </row>
+    <row r="704" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F704" s="221"/>
+    </row>
+    <row r="705" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F705" s="221"/>
+    </row>
+    <row r="706" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F706" s="221"/>
+    </row>
+    <row r="707" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F707" s="221"/>
+    </row>
+    <row r="708" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F708" s="221"/>
+    </row>
+    <row r="709" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F709" s="221"/>
+    </row>
+    <row r="710" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F710" s="221"/>
+    </row>
+    <row r="711" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F711" s="221"/>
+    </row>
+    <row r="712" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F712" s="221"/>
+    </row>
+    <row r="713" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F713" s="221"/>
+    </row>
+    <row r="714" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F714" s="221"/>
+    </row>
+    <row r="715" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F715" s="221"/>
+    </row>
+    <row r="716" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F716" s="221"/>
+    </row>
+    <row r="717" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F717" s="221"/>
+    </row>
+    <row r="718" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F718" s="221"/>
+    </row>
+    <row r="719" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F719" s="221"/>
+    </row>
+    <row r="720" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F720" s="221"/>
+    </row>
+    <row r="721" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F721" s="221"/>
+    </row>
+    <row r="722" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F722" s="221"/>
+    </row>
+    <row r="723" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F723" s="221"/>
+    </row>
+    <row r="724" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F724" s="221"/>
+    </row>
+    <row r="725" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F725" s="221"/>
+    </row>
+    <row r="726" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F726" s="221"/>
+    </row>
+    <row r="727" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F727" s="221"/>
+    </row>
+    <row r="728" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F728" s="221"/>
+    </row>
+    <row r="729" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F729" s="221"/>
+    </row>
+    <row r="730" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F730" s="221"/>
+    </row>
+    <row r="731" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F731" s="221"/>
+    </row>
+    <row r="732" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F732" s="221"/>
+    </row>
+    <row r="733" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F733" s="221"/>
+    </row>
+    <row r="734" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F734" s="221"/>
+    </row>
+    <row r="735" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F735" s="221"/>
+    </row>
+    <row r="736" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F736" s="221"/>
+    </row>
+    <row r="737" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F737" s="221"/>
+    </row>
+    <row r="738" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F738" s="221"/>
+    </row>
+    <row r="739" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F739" s="221"/>
+    </row>
+    <row r="740" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F740" s="221"/>
+    </row>
+    <row r="741" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F741" s="221"/>
+    </row>
+    <row r="742" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F742" s="221"/>
+    </row>
+    <row r="743" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F743" s="221"/>
+    </row>
+    <row r="744" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F744" s="221"/>
+    </row>
+    <row r="745" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F745" s="221"/>
+    </row>
+    <row r="746" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F746" s="221"/>
+    </row>
+    <row r="747" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F747" s="221"/>
+    </row>
+    <row r="748" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F748" s="221"/>
+    </row>
+    <row r="749" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F749" s="221"/>
+    </row>
+    <row r="750" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F750" s="221"/>
+    </row>
+    <row r="751" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F751" s="221"/>
+    </row>
+    <row r="752" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F752" s="221"/>
+    </row>
+    <row r="753" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F753" s="221"/>
+    </row>
+    <row r="754" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F754" s="221"/>
+    </row>
+    <row r="755" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F755" s="221"/>
+    </row>
+    <row r="756" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F756" s="221"/>
+    </row>
+    <row r="757" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F757" s="221"/>
+    </row>
+    <row r="758" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F758" s="221"/>
+    </row>
+    <row r="759" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F759" s="221"/>
+    </row>
+    <row r="760" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F760" s="221"/>
+    </row>
+    <row r="761" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F761" s="221"/>
+    </row>
+    <row r="762" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F762" s="221"/>
+    </row>
+    <row r="763" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F763" s="221"/>
+    </row>
+    <row r="764" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F764" s="221"/>
+    </row>
+    <row r="765" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F765" s="221"/>
+    </row>
+    <row r="766" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F766" s="221"/>
+    </row>
+    <row r="767" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F767" s="221"/>
+    </row>
+    <row r="768" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F768" s="221"/>
+    </row>
+    <row r="769" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F769" s="221"/>
+    </row>
+    <row r="770" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F770" s="221"/>
+    </row>
+    <row r="771" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F771" s="221"/>
+    </row>
+    <row r="772" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F772" s="221"/>
+    </row>
+    <row r="773" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F773" s="221"/>
+    </row>
+    <row r="774" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F774" s="221"/>
+    </row>
+    <row r="775" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F775" s="221"/>
+    </row>
+    <row r="776" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F776" s="221"/>
+    </row>
+    <row r="777" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F777" s="221"/>
+    </row>
+    <row r="778" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F778" s="221"/>
+    </row>
+    <row r="779" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F779" s="221"/>
+    </row>
+    <row r="780" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F780" s="221"/>
+    </row>
+    <row r="781" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F781" s="221"/>
+    </row>
+    <row r="782" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F782" s="221"/>
+    </row>
+    <row r="783" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F783" s="221"/>
+    </row>
+    <row r="784" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F784" s="221"/>
+    </row>
+    <row r="785" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F785" s="221"/>
+    </row>
+    <row r="786" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F786" s="221"/>
+    </row>
+    <row r="787" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F787" s="221"/>
+    </row>
+    <row r="788" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F788" s="221"/>
+    </row>
+    <row r="789" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F789" s="221"/>
+    </row>
+    <row r="790" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F790" s="221"/>
+    </row>
+    <row r="791" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F791" s="221"/>
+    </row>
+    <row r="792" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F792" s="221"/>
+    </row>
+    <row r="793" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F793" s="221"/>
+    </row>
+    <row r="794" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F794" s="221"/>
+    </row>
+    <row r="795" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F795" s="221"/>
+    </row>
+    <row r="796" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F796" s="221"/>
+    </row>
+    <row r="797" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F797" s="221"/>
+    </row>
+    <row r="798" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F798" s="221"/>
+    </row>
+    <row r="799" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F799" s="221"/>
+    </row>
+    <row r="800" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F800" s="221"/>
+    </row>
+    <row r="801" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F801" s="221"/>
+    </row>
+    <row r="802" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F802" s="221"/>
+    </row>
+    <row r="803" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F803" s="221"/>
+    </row>
+    <row r="804" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F804" s="221"/>
+    </row>
+    <row r="805" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F805" s="221"/>
+    </row>
+    <row r="806" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F806" s="221"/>
+    </row>
+    <row r="807" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F807" s="221"/>
+    </row>
+    <row r="808" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F808" s="221"/>
+    </row>
+    <row r="809" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F809" s="221"/>
+    </row>
+    <row r="810" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F810" s="221"/>
+    </row>
+    <row r="811" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F811" s="221"/>
+    </row>
+    <row r="812" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F812" s="221"/>
+    </row>
+    <row r="813" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F813" s="221"/>
+    </row>
+    <row r="814" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F814" s="221"/>
+    </row>
+    <row r="815" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F815" s="221"/>
+    </row>
+    <row r="816" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F816" s="221"/>
+    </row>
+    <row r="817" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F817" s="221"/>
+    </row>
+    <row r="818" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F818" s="221"/>
+    </row>
+    <row r="819" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F819" s="221"/>
+    </row>
+    <row r="820" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F820" s="221"/>
+    </row>
+    <row r="821" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F821" s="221"/>
+    </row>
+    <row r="822" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F822" s="221"/>
+    </row>
+    <row r="823" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F823" s="221"/>
+    </row>
+    <row r="824" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F824" s="221"/>
+    </row>
+    <row r="825" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F825" s="221"/>
+    </row>
+    <row r="826" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F826" s="221"/>
+    </row>
+    <row r="827" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F827" s="221"/>
+    </row>
+    <row r="828" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F828" s="221"/>
+    </row>
+    <row r="829" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F829" s="221"/>
+    </row>
+    <row r="830" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F830" s="221"/>
+    </row>
+    <row r="831" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F831" s="221"/>
+    </row>
+    <row r="832" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F832" s="221"/>
+    </row>
+    <row r="833" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F833" s="221"/>
+    </row>
+    <row r="834" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F834" s="221"/>
+    </row>
+    <row r="835" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F835" s="221"/>
+    </row>
+    <row r="836" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F836" s="221"/>
+    </row>
+    <row r="837" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F837" s="221"/>
+    </row>
+    <row r="838" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F838" s="221"/>
+    </row>
+    <row r="839" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F839" s="221"/>
+    </row>
+    <row r="840" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F840" s="221"/>
+    </row>
+    <row r="841" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F841" s="221"/>
+    </row>
+    <row r="842" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F842" s="221"/>
+    </row>
+    <row r="843" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F843" s="221"/>
+    </row>
+    <row r="844" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F844" s="221"/>
+    </row>
+    <row r="845" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F845" s="221"/>
+    </row>
+    <row r="846" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F846" s="221"/>
+    </row>
+    <row r="847" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F847" s="221"/>
+    </row>
+    <row r="848" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F848" s="221"/>
+    </row>
+    <row r="849" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F849" s="221"/>
+    </row>
+    <row r="850" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F850" s="221"/>
+    </row>
+    <row r="851" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F851" s="221"/>
+    </row>
+    <row r="852" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F852" s="221"/>
+    </row>
+    <row r="853" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F853" s="221"/>
+    </row>
+    <row r="854" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F854" s="221"/>
+    </row>
+    <row r="855" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F855" s="221"/>
+    </row>
+    <row r="856" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F856" s="221"/>
+    </row>
+    <row r="857" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F857" s="221"/>
+    </row>
+    <row r="858" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F858" s="221"/>
+    </row>
+    <row r="859" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F859" s="221"/>
+    </row>
+    <row r="860" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F860" s="221"/>
+    </row>
+    <row r="861" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F861" s="221"/>
+    </row>
+    <row r="862" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F862" s="221"/>
+    </row>
+    <row r="863" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F863" s="221"/>
+    </row>
+    <row r="864" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F864" s="221"/>
+    </row>
+    <row r="865" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F865" s="221"/>
+    </row>
+    <row r="866" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F866" s="221"/>
+    </row>
+    <row r="867" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F867" s="221"/>
+    </row>
+    <row r="868" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F868" s="221"/>
+    </row>
+    <row r="869" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F869" s="221"/>
+    </row>
+    <row r="870" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F870" s="221"/>
+    </row>
+    <row r="871" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F871" s="221"/>
+    </row>
+    <row r="872" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F872" s="221"/>
+    </row>
+    <row r="873" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F873" s="221"/>
+    </row>
+    <row r="874" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F874" s="221"/>
+    </row>
+    <row r="875" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F875" s="221"/>
+    </row>
+    <row r="876" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F876" s="221"/>
+    </row>
+    <row r="877" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F877" s="221"/>
+    </row>
+    <row r="878" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F878" s="221"/>
+    </row>
+    <row r="879" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F879" s="221"/>
+    </row>
+    <row r="880" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F880" s="221"/>
+    </row>
+    <row r="881" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F881" s="221"/>
+    </row>
+    <row r="882" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F882" s="221"/>
+    </row>
+    <row r="883" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F883" s="221"/>
+    </row>
+    <row r="884" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F884" s="221"/>
+    </row>
+    <row r="885" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F885" s="221"/>
+    </row>
+    <row r="886" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F886" s="221"/>
+    </row>
+    <row r="887" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F887" s="221"/>
+    </row>
+    <row r="888" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F888" s="221"/>
+    </row>
+    <row r="889" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F889" s="221"/>
+    </row>
+    <row r="890" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F890" s="221"/>
+    </row>
+    <row r="891" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F891" s="221"/>
+    </row>
+    <row r="892" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F892" s="221"/>
+    </row>
+    <row r="893" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F893" s="221"/>
+    </row>
+    <row r="894" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F894" s="221"/>
+    </row>
+    <row r="895" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F895" s="221"/>
+    </row>
+    <row r="896" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F896" s="221"/>
+    </row>
+    <row r="897" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F897" s="221"/>
+    </row>
+    <row r="898" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F898" s="221"/>
+    </row>
+    <row r="899" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F899" s="221"/>
+    </row>
+    <row r="900" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F900" s="221"/>
+    </row>
+    <row r="901" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F901" s="221"/>
+    </row>
+    <row r="902" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F902" s="221"/>
+    </row>
+    <row r="903" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F903" s="221"/>
+    </row>
+    <row r="904" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F904" s="221"/>
+    </row>
+    <row r="905" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F905" s="221"/>
+    </row>
+    <row r="906" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F906" s="221"/>
+    </row>
+    <row r="907" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F907" s="221"/>
+    </row>
+    <row r="908" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F908" s="221"/>
+    </row>
+    <row r="909" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F909" s="221"/>
+    </row>
+    <row r="910" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F910" s="221"/>
+    </row>
+    <row r="911" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F911" s="221"/>
+    </row>
+    <row r="912" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F912" s="221"/>
+    </row>
+    <row r="913" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F913" s="221"/>
+    </row>
+    <row r="914" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F914" s="221"/>
+    </row>
+    <row r="915" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F915" s="221"/>
+    </row>
+    <row r="916" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F916" s="221"/>
+    </row>
+    <row r="917" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F917" s="221"/>
+    </row>
+    <row r="918" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F918" s="221"/>
+    </row>
+    <row r="919" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F919" s="221"/>
+    </row>
+    <row r="920" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F920" s="221"/>
+    </row>
+    <row r="921" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F921" s="221"/>
+    </row>
+    <row r="922" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F922" s="221"/>
+    </row>
+    <row r="923" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F923" s="221"/>
+    </row>
+    <row r="924" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F924" s="221"/>
+    </row>
+    <row r="925" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F925" s="221"/>
+    </row>
+    <row r="926" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F926" s="221"/>
+    </row>
+    <row r="927" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F927" s="221"/>
+    </row>
+    <row r="928" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F928" s="221"/>
+    </row>
+    <row r="929" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F929" s="221"/>
+    </row>
+    <row r="930" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F930" s="221"/>
+    </row>
+    <row r="931" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F931" s="221"/>
+    </row>
+    <row r="932" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F932" s="221"/>
+    </row>
+    <row r="933" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F933" s="221"/>
+    </row>
+    <row r="934" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F934" s="221"/>
+    </row>
+    <row r="935" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F935" s="221"/>
+    </row>
+    <row r="936" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F936" s="221"/>
+    </row>
+    <row r="937" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F937" s="221"/>
+    </row>
+    <row r="938" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F938" s="221"/>
+    </row>
+    <row r="939" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F939" s="221"/>
+    </row>
+    <row r="940" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F940" s="221"/>
+    </row>
+    <row r="941" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F941" s="221"/>
+    </row>
+    <row r="942" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F942" s="221"/>
+    </row>
+    <row r="943" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F943" s="221"/>
+    </row>
+    <row r="944" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F944" s="221"/>
+    </row>
+    <row r="945" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F945" s="221"/>
+    </row>
+    <row r="946" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F946" s="221"/>
+    </row>
+    <row r="947" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F947" s="221"/>
+    </row>
+    <row r="948" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F948" s="221"/>
+    </row>
+    <row r="949" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F949" s="221"/>
+    </row>
+    <row r="950" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F950" s="221"/>
+    </row>
+    <row r="951" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F951" s="221"/>
+    </row>
+    <row r="952" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F952" s="221"/>
+    </row>
+    <row r="953" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F953" s="221"/>
+    </row>
+    <row r="954" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F954" s="221"/>
+    </row>
+    <row r="955" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F955" s="221"/>
+    </row>
+    <row r="956" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F956" s="221"/>
+    </row>
+    <row r="957" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F957" s="221"/>
+    </row>
+    <row r="958" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F958" s="221"/>
+    </row>
+    <row r="959" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F959" s="221"/>
+    </row>
+    <row r="960" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F960" s="221"/>
+    </row>
+    <row r="961" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F961" s="221"/>
+    </row>
+    <row r="962" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F962" s="221"/>
+    </row>
+    <row r="963" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F963" s="221"/>
+    </row>
+    <row r="964" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F964" s="221"/>
+    </row>
+    <row r="965" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F965" s="221"/>
+    </row>
+    <row r="966" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F966" s="221"/>
+    </row>
+    <row r="967" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F967" s="221"/>
+    </row>
+    <row r="968" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F968" s="221"/>
+    </row>
+    <row r="969" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F969" s="221"/>
+    </row>
+    <row r="970" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F970" s="221"/>
+    </row>
+    <row r="971" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F971" s="221"/>
+    </row>
+    <row r="972" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F972" s="221"/>
+    </row>
+    <row r="973" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F973" s="221"/>
+    </row>
+    <row r="974" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F974" s="221"/>
+    </row>
+    <row r="975" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F975" s="221"/>
+    </row>
+    <row r="976" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F976" s="221"/>
+    </row>
+    <row r="977" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F977" s="221"/>
+    </row>
+    <row r="978" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F978" s="221"/>
+    </row>
+    <row r="979" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F979" s="221"/>
+    </row>
+    <row r="980" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F980" s="221"/>
+    </row>
+    <row r="981" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F981" s="221"/>
+    </row>
+    <row r="982" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F982" s="221"/>
+    </row>
+    <row r="983" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F983" s="221"/>
+    </row>
+    <row r="984" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F984" s="221"/>
+    </row>
+    <row r="985" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F985" s="221"/>
+    </row>
+    <row r="986" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F986" s="221"/>
+    </row>
+    <row r="987" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F987" s="221"/>
+    </row>
+    <row r="988" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F988" s="221"/>
+    </row>
+    <row r="989" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F989" s="221"/>
+    </row>
+    <row r="990" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F990" s="221"/>
+    </row>
+    <row r="991" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F991" s="221"/>
+    </row>
+    <row r="992" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F992" s="221"/>
+    </row>
+    <row r="993" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F993" s="221"/>
+    </row>
+    <row r="994" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F994" s="221"/>
+    </row>
+    <row r="995" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F995" s="221"/>
+    </row>
+    <row r="996" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F996" s="221"/>
+    </row>
+    <row r="997" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F997" s="221"/>
+    </row>
+    <row r="998" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F998" s="221"/>
+    </row>
+    <row r="999" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F999" s="221"/>
+    </row>
+    <row r="1000" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1000" s="221"/>
+    </row>
+    <row r="1001" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1001" s="221"/>
+    </row>
+    <row r="1002" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1002" s="221"/>
+    </row>
+    <row r="1003" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1003" s="221"/>
+    </row>
+    <row r="1004" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1004" s="221"/>
+    </row>
+    <row r="1005" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1005" s="221"/>
+    </row>
+    <row r="1006" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1006" s="221"/>
+    </row>
+    <row r="1007" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1007" s="221"/>
+    </row>
+    <row r="1008" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1008" s="221"/>
+    </row>
+    <row r="1009" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1009" s="221"/>
+    </row>
+    <row r="1010" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1010" s="221"/>
+    </row>
+    <row r="1011" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1011" s="221"/>
+    </row>
+    <row r="1012" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1012" s="221"/>
+    </row>
+    <row r="1013" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1013" s="221"/>
+    </row>
+    <row r="1014" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1014" s="221"/>
+    </row>
+    <row r="1015" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1015" s="221"/>
+    </row>
+    <row r="1016" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1016" s="221"/>
+    </row>
+    <row r="1017" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1017" s="221"/>
+    </row>
+    <row r="1018" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1018" s="221"/>
+    </row>
+    <row r="1019" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1019" s="221"/>
+    </row>
+    <row r="1020" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1020" s="221"/>
+    </row>
+    <row r="1021" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1021" s="221"/>
+    </row>
+    <row r="1022" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1022" s="221"/>
+    </row>
+    <row r="1023" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1023" s="221"/>
+    </row>
+    <row r="1024" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1024" s="221"/>
+    </row>
+    <row r="1025" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1025" s="221"/>
+    </row>
+    <row r="1026" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1026" s="221"/>
+    </row>
+    <row r="1027" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1027" s="221"/>
+    </row>
+    <row r="1028" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1028" s="221"/>
+    </row>
+    <row r="1029" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1029" s="221"/>
+    </row>
+    <row r="1030" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1030" s="221"/>
+    </row>
+    <row r="1031" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1031" s="221"/>
+    </row>
+    <row r="1032" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1032" s="221"/>
+    </row>
+    <row r="1033" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1033" s="221"/>
+    </row>
+    <row r="1034" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1034" s="221"/>
+    </row>
+    <row r="1035" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1035" s="221"/>
+    </row>
+    <row r="1036" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1036" s="221"/>
+    </row>
+    <row r="1037" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1037" s="221"/>
+    </row>
+    <row r="1038" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1038" s="221"/>
+    </row>
+    <row r="1039" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1039" s="221"/>
+    </row>
+    <row r="1040" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1040" s="221"/>
+    </row>
+    <row r="1041" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1041" s="221"/>
+    </row>
+    <row r="1042" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1042" s="221"/>
+    </row>
+    <row r="1043" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1043" s="221"/>
+    </row>
+    <row r="1044" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1044" s="221"/>
+    </row>
+    <row r="1045" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1045" s="221"/>
+    </row>
+    <row r="1046" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1046" s="221"/>
+    </row>
+    <row r="1047" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1047" s="221"/>
+    </row>
+    <row r="1048" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1048" s="221"/>
+    </row>
+    <row r="1049" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1049" s="221"/>
+    </row>
+    <row r="1050" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1050" s="221"/>
+    </row>
+    <row r="1051" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1051" s="221"/>
+    </row>
+    <row r="1052" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F1052" s="221"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="15">
+      <formula>$J5="instalada"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" priority="3" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="16">
+      <formula>$J5="Configurar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5">
+    <cfRule type="expression" priority="4" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="17">
+      <formula>$J5="Pendiente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:D4">
+    <cfRule type="expression" priority="5" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="18">
+      <formula>$J3="instalada"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="6" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="19">
+      <formula>$J3="Configurar"</formula>
+    </cfRule>
+    <cfRule type="expression" priority="7" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="20">
+      <formula>$J3="Pendiente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" priority="8" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="21">
+      <formula>$J2="instalada"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" priority="9" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="22">
+      <formula>$J2="Configurar"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="expression" priority="10" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="23">
+      <formula>$J2="Pendiente"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G1:G57 F52:F1052" type="list">
+      <formula1>"INSTALLED,PENDING,ERROR"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <tableParts>
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -16137,10 +21325,10 @@
         <v>512</v>
       </c>
       <c r="B1" s="390" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="C1" s="390" t="s">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="D1" s="362"/>
     </row>
@@ -16170,7 +21358,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="395" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B4" s="396" t="n">
         <v>45770</v>
@@ -16182,7 +21370,7 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="391" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B5" s="392" t="n">
         <v>45773</v>
@@ -16225,7 +21413,7 @@
   </sheetPr>
   <dimension ref="B1:AH285"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K57" activeCellId="0" sqref="K57"/>
     </sheetView>
   </sheetViews>
@@ -19613,7 +24801,7 @@
   </sheetPr>
   <dimension ref="A1:AD340"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K24" activeCellId="0" sqref="K24"/>
     </sheetView>
   </sheetViews>
@@ -22912,7 +28100,7 @@
   </sheetPr>
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -23908,7 +29096,7 @@
   </sheetPr>
   <dimension ref="A1:AB351"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="R10" activeCellId="0" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -27795,7 +32983,7 @@
   </sheetPr>
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -29631,7 +34819,7 @@
   </sheetPr>
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -29692,7 +34880,7 @@
   </sheetPr>
   <dimension ref="A1:O65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Q1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
@@ -31564,7 +36752,7 @@
   </sheetPr>
   <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="35" zoomScaleNormal="35" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
     </sheetView>
   </sheetViews>

--- a/source.xlsx
+++ b/source.xlsx
@@ -191,7 +191,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3995" uniqueCount="728">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3998" uniqueCount="731">
   <si>
     <t xml:space="preserve">HAB</t>
   </si>
@@ -1924,6 +1924,9 @@
     <t xml:space="preserve">encryption</t>
   </si>
   <si>
+    <t xml:space="preserve">propiedad</t>
+  </si>
+  <si>
     <t xml:space="preserve">1301</t>
   </si>
   <si>
@@ -1945,6 +1948,9 @@
     <t xml:space="preserve">WPA2</t>
   </si>
   <si>
+    <t xml:space="preserve">vle</t>
+  </si>
+  <si>
     <t xml:space="preserve">habitación vacía</t>
   </si>
   <si>
@@ -1958,6 +1964,9 @@
   </si>
   <si>
     <t xml:space="preserve">WPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vg</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.200.64/27</t>
@@ -5114,9 +5123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
+      <xdr:colOff>630360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5125,13 +5134,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="19410" t="33612" r="45501" b="25020"/>
+        <a:srcRect l="19407" t="33607" r="45496" b="25015"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358000" y="12960"/>
-          <a:ext cx="3174840" cy="1947960"/>
+          <a:ext cx="3174480" cy="1947600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5158,9 +5167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>630720</xdr:colOff>
+      <xdr:colOff>630360</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>103320</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5169,13 +5178,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="19410" t="33612" r="45501" b="25020"/>
+        <a:srcRect l="19407" t="33607" r="45496" b="25015"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358000" y="12960"/>
-          <a:ext cx="3174840" cy="1947960"/>
+          <a:ext cx="3174480" cy="1947600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10690,10 +10699,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:P1052"/>
+  <dimension ref="A1:Q1052"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q5" activeCellId="0" sqref="Q5"/>
+      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10768,10 +10777,13 @@
       <c r="P1" s="220" t="s">
         <v>576</v>
       </c>
+      <c r="Q1" s="220" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="381" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B2" s="386" t="str">
         <f aca="false">LEFT(A2)</f>
@@ -10787,19 +10799,19 @@
         <v>45773</v>
       </c>
       <c r="F2" s="220" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G2" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H2" s="220" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I2" s="220" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J2" s="220" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K2" s="220" t="n">
         <v>1001</v>
@@ -10813,7 +10825,10 @@
         <v>LaEstancia1301</v>
       </c>
       <c r="P2" s="220" t="s">
-        <v>583</v>
+        <v>584</v>
+      </c>
+      <c r="Q2" s="220" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10831,19 +10846,19 @@
         <v>418</v>
       </c>
       <c r="E3" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G3" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H3" s="220" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I3" s="220" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J3" s="220" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K3" s="220" t="n">
         <v>1002</v>
@@ -10857,7 +10872,10 @@
         <v>LaEstancia1103A</v>
       </c>
       <c r="P3" s="220" t="s">
-        <v>588</v>
+        <v>590</v>
+      </c>
+      <c r="Q3" s="220" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -10878,16 +10896,16 @@
         <v>45772</v>
       </c>
       <c r="G4" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H4" s="220" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I4" s="220" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J4" s="220" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K4" s="220" t="n">
         <v>1003</v>
@@ -10901,12 +10919,12 @@
         <v>LaEstancia1103B</v>
       </c>
       <c r="P4" s="220" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="381" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B5" s="220" t="str">
         <f aca="false">LEFT(A5)</f>
@@ -10922,16 +10940,16 @@
         <v>45773</v>
       </c>
       <c r="F5" s="220" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G5" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H5" s="220" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I5" s="220" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="J5" s="387" t="n">
         <v>192168200127</v>
@@ -10967,13 +10985,13 @@
         <v>45773</v>
       </c>
       <c r="G6" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H6" s="220" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I6" s="220" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J6" s="387" t="n">
         <v>192168200159</v>
@@ -11009,13 +11027,13 @@
         <v>45773</v>
       </c>
       <c r="G7" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H7" s="220" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I7" s="220" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="J7" s="387" t="n">
         <v>192168200191</v>
@@ -11051,13 +11069,13 @@
         <v>45772</v>
       </c>
       <c r="G8" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H8" s="220" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="I8" s="220" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="J8" s="387" t="n">
         <v>192168200223</v>
@@ -11093,13 +11111,13 @@
         <v>45771</v>
       </c>
       <c r="G9" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H9" s="220" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="I9" s="220" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="J9" s="387" t="n">
         <v>192168200255</v>
@@ -11125,7 +11143,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="220" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D10" s="381" t="str">
         <f aca="false" t="array" ref="D10:D10">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11135,16 +11153,16 @@
         <v>45774</v>
       </c>
       <c r="G10" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H10" s="220" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I10" s="220" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="J10" s="220" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K10" s="220" t="n">
         <v>1009</v>
@@ -11177,16 +11195,16 @@
         <v>45771</v>
       </c>
       <c r="G11" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H11" s="220" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I11" s="220" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="J11" s="220" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K11" s="220" t="n">
         <v>1010</v>
@@ -11209,7 +11227,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="388" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D12" s="389" t="str">
         <f aca="false" t="array" ref="D12:D12">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11219,16 +11237,16 @@
         <v>45770</v>
       </c>
       <c r="G12" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H12" s="220" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="I12" s="220" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="J12" s="220" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K12" s="220" t="n">
         <v>1011</v>
@@ -11258,16 +11276,16 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E13" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G13" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H13" s="220" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I13" s="220" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J13" s="387" t="n">
         <v>192168201127</v>
@@ -11303,13 +11321,13 @@
         <v>45771</v>
       </c>
       <c r="G14" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H14" s="220" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I14" s="220" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="J14" s="387" t="n">
         <v>192168201159</v>
@@ -11345,13 +11363,13 @@
         <v>45776</v>
       </c>
       <c r="G15" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H15" s="220" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="I15" s="220" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J15" s="387" t="n">
         <v>192168201191</v>
@@ -11387,13 +11405,13 @@
         <v>45774</v>
       </c>
       <c r="G16" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H16" s="220" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="I16" s="220" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="J16" s="387" t="n">
         <v>192168201223</v>
@@ -11429,13 +11447,13 @@
         <v>45779</v>
       </c>
       <c r="G17" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H17" s="220" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="I17" s="220" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J17" s="387" t="n">
         <v>192168201255</v>
@@ -11471,16 +11489,16 @@
         <v>45779</v>
       </c>
       <c r="G18" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H18" s="220" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="I18" s="220" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="J18" s="220" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K18" s="220" t="n">
         <v>1017</v>
@@ -11513,16 +11531,16 @@
         <v>45770</v>
       </c>
       <c r="G19" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H19" s="220" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I19" s="220" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J19" s="220" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K19" s="220" t="n">
         <v>1018</v>
@@ -11552,19 +11570,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E20" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G20" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H20" s="220" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="I20" s="220" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J20" s="220" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K20" s="220" t="n">
         <v>1019</v>
@@ -11587,7 +11605,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="220" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D21" s="220" t="str">
         <f aca="false" t="array" ref="D21:D21">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11597,13 +11615,13 @@
         <v>45770</v>
       </c>
       <c r="G21" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H21" s="220" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="I21" s="220" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="J21" s="387" t="n">
         <v>192168202127</v>
@@ -11629,7 +11647,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="388" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D22" s="388" t="str">
         <f aca="false" t="array" ref="D22:D22">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11639,13 +11657,13 @@
         <v>45770</v>
       </c>
       <c r="G22" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H22" s="220" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="I22" s="220" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="J22" s="387" t="n">
         <v>192168202159</v>
@@ -11681,13 +11699,13 @@
         <v>45773</v>
       </c>
       <c r="G23" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H23" s="220" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I23" s="220" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J23" s="387" t="n">
         <v>192168202191</v>
@@ -11713,7 +11731,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="220" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D24" s="220" t="str">
         <f aca="false" t="array" ref="D24:D24">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11723,13 +11741,13 @@
         <v>45771</v>
       </c>
       <c r="G24" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H24" s="220" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="I24" s="220" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J24" s="387" t="n">
         <v>192168202223</v>
@@ -11762,16 +11780,16 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E25" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G25" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H25" s="220" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I25" s="220" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J25" s="387" t="n">
         <v>192168202255</v>
@@ -11804,19 +11822,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E26" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G26" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H26" s="220" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="I26" s="220" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="J26" s="220" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K26" s="220" t="n">
         <v>1025</v>
@@ -11846,19 +11864,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E27" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G27" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H27" s="220" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="I27" s="220" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="J27" s="220" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="K27" s="220" t="n">
         <v>1026</v>
@@ -11881,7 +11899,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="220" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D28" s="220" t="str">
         <f aca="false" t="array" ref="D28:D28">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11891,16 +11909,16 @@
         <v>45774</v>
       </c>
       <c r="G28" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H28" s="220" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="I28" s="220" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="J28" s="220" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K28" s="220" t="n">
         <v>1027</v>
@@ -11923,7 +11941,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="220" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D29" s="220" t="str">
         <f aca="false" t="array" ref="D29:D29">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -11933,13 +11951,13 @@
         <v>45770</v>
       </c>
       <c r="G29" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H29" s="220" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="I29" s="220" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="J29" s="387" t="n">
         <v>192168203127</v>
@@ -11975,13 +11993,13 @@
         <v>45775</v>
       </c>
       <c r="G30" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H30" s="220" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I30" s="220" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="J30" s="387" t="n">
         <v>192168203159</v>
@@ -12007,7 +12025,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="220" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D31" s="220" t="str">
         <f aca="false" t="array" ref="D31:D31">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12017,13 +12035,13 @@
         <v>45775</v>
       </c>
       <c r="G31" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H31" s="220" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="I31" s="220" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="J31" s="387" t="n">
         <v>192168203191</v>
@@ -12049,7 +12067,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="220" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D32" s="220" t="str">
         <f aca="false" t="array" ref="D32:D32">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12059,13 +12077,13 @@
         <v>45778</v>
       </c>
       <c r="G32" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H32" s="220" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="I32" s="220" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="J32" s="387" t="n">
         <v>192168203223</v>
@@ -12101,13 +12119,13 @@
         <v>45778</v>
       </c>
       <c r="G33" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H33" s="220" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I33" s="220" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="J33" s="387" t="n">
         <v>192168203255</v>
@@ -12133,26 +12151,26 @@
         <v>3</v>
       </c>
       <c r="C34" s="388" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D34" s="388" t="str">
         <f aca="false" t="array" ref="D34:D34">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E34" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G34" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H34" s="220" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="I34" s="220" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J34" s="220" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="K34" s="220" t="n">
         <v>1033</v>
@@ -12175,7 +12193,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="220" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D35" s="220" t="str">
         <f aca="false" t="array" ref="D35:D35">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12185,16 +12203,16 @@
         <v>45770</v>
       </c>
       <c r="G35" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H35" s="220" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="I35" s="220" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="J35" s="220" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="K35" s="220" t="n">
         <v>1034</v>
@@ -12217,26 +12235,26 @@
         <v>3</v>
       </c>
       <c r="C36" s="220" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D36" s="220" t="str">
         <f aca="false" t="array" ref="D36:D36">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E36" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G36" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H36" s="220" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="I36" s="220" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="J36" s="220" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K36" s="220" t="n">
         <v>1035</v>
@@ -12259,7 +12277,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="220" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D37" s="220" t="str">
         <f aca="false" t="array" ref="D37:D37">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12269,13 +12287,13 @@
         <v>45771</v>
       </c>
       <c r="G37" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H37" s="220" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="I37" s="220" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J37" s="387" t="n">
         <v>192168204127</v>
@@ -12301,7 +12319,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="220" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D38" s="220" t="str">
         <f aca="false" t="array" ref="D38:D38">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12311,13 +12329,13 @@
         <v>45771</v>
       </c>
       <c r="G38" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H38" s="220" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="I38" s="220" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="J38" s="387" t="n">
         <v>192168204159</v>
@@ -12343,7 +12361,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="220" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D39" s="220" t="str">
         <f aca="false" t="array" ref="D39:D39">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -12353,13 +12371,13 @@
         <v>45774</v>
       </c>
       <c r="G39" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H39" s="220" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="I39" s="220" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="J39" s="387" t="n">
         <v>192168204191</v>
@@ -12395,13 +12413,13 @@
         <v>45771</v>
       </c>
       <c r="G40" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H40" s="220" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I40" s="220" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="J40" s="387" t="n">
         <v>192168204223</v>
@@ -12434,16 +12452,16 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E41" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G41" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H41" s="220" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="I41" s="220" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="J41" s="387" t="n">
         <v>192168204255</v>
@@ -12476,19 +12494,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E42" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G42" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H42" s="220" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="I42" s="220" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J42" s="220" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K42" s="220" t="n">
         <v>1041</v>
@@ -12521,16 +12539,16 @@
         <v>45771</v>
       </c>
       <c r="G43" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H43" s="220" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="I43" s="220" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="J43" s="220" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="K43" s="220" t="n">
         <v>1042</v>
@@ -12563,16 +12581,16 @@
         <v>45771</v>
       </c>
       <c r="G44" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H44" s="220" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="I44" s="220" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="J44" s="220" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="K44" s="220" t="n">
         <v>1043</v>
@@ -12605,13 +12623,13 @@
         <v>45771</v>
       </c>
       <c r="G45" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H45" s="220" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I45" s="220" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J45" s="387" t="n">
         <v>192168205127</v>
@@ -12647,13 +12665,13 @@
         <v>45772</v>
       </c>
       <c r="G46" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H46" s="220" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="I46" s="220" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J46" s="387" t="n">
         <v>192168205159</v>
@@ -12689,13 +12707,13 @@
         <v>45774</v>
       </c>
       <c r="G47" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H47" s="220" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="I47" s="220" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J47" s="387" t="n">
         <v>192168205191</v>
@@ -12731,13 +12749,13 @@
         <v>45774</v>
       </c>
       <c r="G48" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H48" s="220" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="I48" s="220" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="J48" s="387" t="n">
         <v>192168205223</v>
@@ -12773,13 +12791,13 @@
         <v>45773</v>
       </c>
       <c r="G49" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H49" s="220" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="I49" s="220" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="J49" s="387" t="n">
         <v>192168205255</v>
@@ -12815,16 +12833,16 @@
         <v>45772</v>
       </c>
       <c r="G50" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H50" s="220" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="I50" s="220" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J50" s="220" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K50" s="220" t="n">
         <v>1049</v>
@@ -12854,19 +12872,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E51" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G51" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H51" s="220" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="I51" s="220" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J51" s="220" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K51" s="220" t="n">
         <v>1050</v>
@@ -12882,7 +12900,7 @@
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="381" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B52" s="220" t="str">
         <f aca="false">LEFT(A52)</f>
@@ -12896,13 +12914,13 @@
       <c r="F52" s="382"/>
       <c r="G52" s="221"/>
       <c r="H52" s="220" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="I52" s="220" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="J52" s="220" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K52" s="220" t="n">
         <v>1051</v>
@@ -12911,7 +12929,7 @@
         <v>123456789</v>
       </c>
       <c r="O52" s="220" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16030,7 +16048,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="220" width="17.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="23" min="16" style="220" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="24" min="24" style="220" width="46.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="0" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16384" min="16384" style="81" width="11.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -16082,7 +16100,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="381" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B2" s="386" t="str">
         <f aca="false">LEFT(A2)</f>
@@ -16098,19 +16116,19 @@
         <v>45773</v>
       </c>
       <c r="F2" s="220" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G2" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H2" s="220" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="I2" s="220" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="J2" s="220" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="K2" s="220" t="n">
         <v>1001</v>
@@ -16139,19 +16157,19 @@
         <v>418</v>
       </c>
       <c r="E3" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G3" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H3" s="220" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="I3" s="220" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="J3" s="220" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="K3" s="220" t="n">
         <v>1002</v>
@@ -16183,16 +16201,16 @@
         <v>45772</v>
       </c>
       <c r="G4" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H4" s="220" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="I4" s="220" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
       <c r="J4" s="220" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
       <c r="K4" s="220" t="n">
         <v>1003</v>
@@ -16208,7 +16226,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="381" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B5" s="220" t="str">
         <f aca="false">LEFT(A5)</f>
@@ -16224,16 +16242,16 @@
         <v>45773</v>
       </c>
       <c r="F5" s="220" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="G5" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H5" s="220" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
       <c r="I5" s="220" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
       <c r="J5" s="387" t="n">
         <v>192168200127</v>
@@ -16269,13 +16287,13 @@
         <v>45773</v>
       </c>
       <c r="G6" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H6" s="220" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
       <c r="I6" s="220" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="J6" s="387" t="n">
         <v>192168200159</v>
@@ -16311,13 +16329,13 @@
         <v>45773</v>
       </c>
       <c r="G7" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H7" s="220" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
       <c r="I7" s="220" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
       <c r="J7" s="387" t="n">
         <v>192168200191</v>
@@ -16353,13 +16371,13 @@
         <v>45772</v>
       </c>
       <c r="G8" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H8" s="220" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
       <c r="I8" s="220" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
       <c r="J8" s="387" t="n">
         <v>192168200223</v>
@@ -16395,13 +16413,13 @@
         <v>45771</v>
       </c>
       <c r="G9" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H9" s="220" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
       <c r="I9" s="220" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
       <c r="J9" s="387" t="n">
         <v>192168200255</v>
@@ -16427,7 +16445,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="220" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
       <c r="D10" s="381" t="str">
         <f aca="false" t="array" ref="D10:D10">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -16437,16 +16455,16 @@
         <v>45774</v>
       </c>
       <c r="G10" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H10" s="220" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
       <c r="I10" s="220" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
       <c r="J10" s="220" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
       <c r="K10" s="220" t="n">
         <v>1009</v>
@@ -16479,16 +16497,16 @@
         <v>45771</v>
       </c>
       <c r="G11" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H11" s="220" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
       <c r="I11" s="220" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
       <c r="J11" s="220" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
       <c r="K11" s="220" t="n">
         <v>1010</v>
@@ -16511,7 +16529,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="388" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
       <c r="D12" s="389" t="str">
         <f aca="false" t="array" ref="D12:D12">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -16521,16 +16539,16 @@
         <v>45770</v>
       </c>
       <c r="G12" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H12" s="220" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="I12" s="220" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="J12" s="220" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="K12" s="220" t="n">
         <v>1011</v>
@@ -16560,16 +16578,16 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E13" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G13" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H13" s="220" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
       <c r="I13" s="220" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="J13" s="387" t="n">
         <v>192168201127</v>
@@ -16605,13 +16623,13 @@
         <v>45771</v>
       </c>
       <c r="G14" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H14" s="220" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
       <c r="I14" s="220" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="J14" s="387" t="n">
         <v>192168201159</v>
@@ -16647,13 +16665,13 @@
         <v>45776</v>
       </c>
       <c r="G15" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H15" s="220" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="I15" s="220" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="J15" s="387" t="n">
         <v>192168201191</v>
@@ -16689,13 +16707,13 @@
         <v>45774</v>
       </c>
       <c r="G16" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H16" s="220" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="I16" s="220" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="J16" s="387" t="n">
         <v>192168201223</v>
@@ -16731,13 +16749,13 @@
         <v>45779</v>
       </c>
       <c r="G17" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H17" s="220" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
       <c r="I17" s="220" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
       <c r="J17" s="387" t="n">
         <v>192168201255</v>
@@ -16773,16 +16791,16 @@
         <v>45779</v>
       </c>
       <c r="G18" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H18" s="220" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
       <c r="I18" s="220" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
       <c r="J18" s="220" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
       <c r="K18" s="220" t="n">
         <v>1017</v>
@@ -16815,16 +16833,16 @@
         <v>45770</v>
       </c>
       <c r="G19" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H19" s="220" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
       <c r="I19" s="220" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
       <c r="J19" s="220" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
       <c r="K19" s="220" t="n">
         <v>1018</v>
@@ -16854,19 +16872,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E20" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G20" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H20" s="220" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="I20" s="220" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="J20" s="220" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="K20" s="220" t="n">
         <v>1019</v>
@@ -16889,7 +16907,7 @@
         <v>2</v>
       </c>
       <c r="C21" s="220" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
       <c r="D21" s="220" t="str">
         <f aca="false" t="array" ref="D21:D21">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -16899,13 +16917,13 @@
         <v>45770</v>
       </c>
       <c r="G21" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H21" s="220" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
       <c r="I21" s="220" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
       <c r="J21" s="387" t="n">
         <v>192168202127</v>
@@ -16931,7 +16949,7 @@
         <v>2</v>
       </c>
       <c r="C22" s="388" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
       <c r="D22" s="388" t="str">
         <f aca="false" t="array" ref="D22:D22">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -16941,13 +16959,13 @@
         <v>45770</v>
       </c>
       <c r="G22" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H22" s="220" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="I22" s="220" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
       <c r="J22" s="387" t="n">
         <v>192168202159</v>
@@ -16983,13 +17001,13 @@
         <v>45773</v>
       </c>
       <c r="G23" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H23" s="220" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
       <c r="I23" s="220" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
       <c r="J23" s="387" t="n">
         <v>192168202191</v>
@@ -17015,7 +17033,7 @@
         <v>3</v>
       </c>
       <c r="C24" s="220" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
       <c r="D24" s="220" t="str">
         <f aca="false" t="array" ref="D24:D24">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17025,13 +17043,13 @@
         <v>45771</v>
       </c>
       <c r="G24" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H24" s="220" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
       <c r="I24" s="220" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
       <c r="J24" s="387" t="n">
         <v>192168202223</v>
@@ -17064,16 +17082,16 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E25" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G25" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H25" s="220" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
       <c r="I25" s="220" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
       <c r="J25" s="387" t="n">
         <v>192168202255</v>
@@ -17106,19 +17124,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E26" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G26" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H26" s="220" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
       <c r="I26" s="220" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
       <c r="J26" s="220" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
       <c r="K26" s="220" t="n">
         <v>1025</v>
@@ -17148,19 +17166,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E27" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G27" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H27" s="220" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
       <c r="I27" s="220" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
       <c r="J27" s="220" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
       <c r="K27" s="220" t="n">
         <v>1026</v>
@@ -17183,7 +17201,7 @@
         <v>3</v>
       </c>
       <c r="C28" s="220" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="D28" s="220" t="str">
         <f aca="false" t="array" ref="D28:D28">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17193,16 +17211,16 @@
         <v>45774</v>
       </c>
       <c r="G28" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H28" s="220" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
       <c r="I28" s="220" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
       <c r="J28" s="220" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
       <c r="K28" s="220" t="n">
         <v>1027</v>
@@ -17225,7 +17243,7 @@
         <v>3</v>
       </c>
       <c r="C29" s="220" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
       <c r="D29" s="220" t="str">
         <f aca="false" t="array" ref="D29:D29">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17235,13 +17253,13 @@
         <v>45770</v>
       </c>
       <c r="G29" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H29" s="220" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
       <c r="I29" s="220" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="J29" s="387" t="n">
         <v>192168203127</v>
@@ -17277,13 +17295,13 @@
         <v>45775</v>
       </c>
       <c r="G30" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H30" s="220" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="I30" s="220" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="J30" s="387" t="n">
         <v>192168203159</v>
@@ -17309,7 +17327,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="220" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="D31" s="220" t="str">
         <f aca="false" t="array" ref="D31:D31">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17319,13 +17337,13 @@
         <v>45775</v>
       </c>
       <c r="G31" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H31" s="220" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
       <c r="I31" s="220" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="J31" s="387" t="n">
         <v>192168203191</v>
@@ -17351,7 +17369,7 @@
         <v>3</v>
       </c>
       <c r="C32" s="220" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="D32" s="220" t="str">
         <f aca="false" t="array" ref="D32:D32">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17361,13 +17379,13 @@
         <v>45778</v>
       </c>
       <c r="G32" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H32" s="220" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
       <c r="I32" s="220" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
       <c r="J32" s="387" t="n">
         <v>192168203223</v>
@@ -17403,13 +17421,13 @@
         <v>45778</v>
       </c>
       <c r="G33" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H33" s="220" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
       <c r="I33" s="220" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
       <c r="J33" s="387" t="n">
         <v>192168203255</v>
@@ -17435,26 +17453,26 @@
         <v>3</v>
       </c>
       <c r="C34" s="388" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
       <c r="D34" s="388" t="str">
         <f aca="false" t="array" ref="D34:D34">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E34" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G34" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H34" s="220" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
       <c r="I34" s="220" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
       <c r="J34" s="220" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
       <c r="K34" s="220" t="n">
         <v>1033</v>
@@ -17477,7 +17495,7 @@
         <v>3</v>
       </c>
       <c r="C35" s="220" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
       <c r="D35" s="220" t="str">
         <f aca="false" t="array" ref="D35:D35">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17487,16 +17505,16 @@
         <v>45770</v>
       </c>
       <c r="G35" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H35" s="220" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="I35" s="220" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
       <c r="J35" s="220" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
       <c r="K35" s="220" t="n">
         <v>1034</v>
@@ -17519,26 +17537,26 @@
         <v>3</v>
       </c>
       <c r="C36" s="220" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
       <c r="D36" s="220" t="str">
         <f aca="false" t="array" ref="D36:D36">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E36" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G36" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H36" s="220" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="I36" s="220" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="J36" s="220" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="K36" s="220" t="n">
         <v>1035</v>
@@ -17561,7 +17579,7 @@
         <v>3</v>
       </c>
       <c r="C37" s="220" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
       <c r="D37" s="220" t="str">
         <f aca="false" t="array" ref="D37:D37">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17571,13 +17589,13 @@
         <v>45771</v>
       </c>
       <c r="G37" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H37" s="220" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
       <c r="I37" s="220" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
       <c r="J37" s="387" t="n">
         <v>192168204127</v>
@@ -17603,7 +17621,7 @@
         <v>3</v>
       </c>
       <c r="C38" s="220" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
       <c r="D38" s="220" t="str">
         <f aca="false" t="array" ref="D38:D38">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17613,13 +17631,13 @@
         <v>45771</v>
       </c>
       <c r="G38" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H38" s="220" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
       <c r="I38" s="220" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
       <c r="J38" s="387" t="n">
         <v>192168204159</v>
@@ -17645,7 +17663,7 @@
         <v>3</v>
       </c>
       <c r="C39" s="220" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
       <c r="D39" s="220" t="str">
         <f aca="false" t="array" ref="D39:D39">_xlfn.XLOOKUP(Tabla4[ROOM],Tabla14[Villa],Tabla14['# Serie],"No se Encontro",0,1)</f>
@@ -17655,13 +17673,13 @@
         <v>45774</v>
       </c>
       <c r="G39" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H39" s="220" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
       <c r="I39" s="220" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
       <c r="J39" s="387" t="n">
         <v>192168204191</v>
@@ -17697,13 +17715,13 @@
         <v>45771</v>
       </c>
       <c r="G40" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H40" s="220" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
       <c r="I40" s="220" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
       <c r="J40" s="387" t="n">
         <v>192168204223</v>
@@ -17736,16 +17754,16 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E41" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G41" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H41" s="220" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
       <c r="I41" s="220" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
       <c r="J41" s="387" t="n">
         <v>192168204255</v>
@@ -17778,19 +17796,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E42" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G42" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H42" s="220" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
       <c r="I42" s="220" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
       <c r="J42" s="220" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
       <c r="K42" s="220" t="n">
         <v>1041</v>
@@ -17823,16 +17841,16 @@
         <v>45771</v>
       </c>
       <c r="G43" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H43" s="220" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
       <c r="I43" s="220" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
       <c r="J43" s="220" t="s">
-        <v>699</v>
+        <v>702</v>
       </c>
       <c r="K43" s="220" t="n">
         <v>1042</v>
@@ -17865,16 +17883,16 @@
         <v>45771</v>
       </c>
       <c r="G44" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H44" s="220" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="I44" s="220" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="J44" s="220" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="K44" s="220" t="n">
         <v>1043</v>
@@ -17907,13 +17925,13 @@
         <v>45771</v>
       </c>
       <c r="G45" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H45" s="220" t="s">
-        <v>703</v>
+        <v>706</v>
       </c>
       <c r="I45" s="220" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="J45" s="387" t="n">
         <v>192168205127</v>
@@ -17949,13 +17967,13 @@
         <v>45772</v>
       </c>
       <c r="G46" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H46" s="220" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="I46" s="220" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
       <c r="J46" s="387" t="n">
         <v>192168205159</v>
@@ -17991,13 +18009,13 @@
         <v>45774</v>
       </c>
       <c r="G47" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H47" s="220" t="s">
-        <v>707</v>
+        <v>710</v>
       </c>
       <c r="I47" s="220" t="s">
-        <v>708</v>
+        <v>711</v>
       </c>
       <c r="J47" s="387" t="n">
         <v>192168205191</v>
@@ -18033,13 +18051,13 @@
         <v>45774</v>
       </c>
       <c r="G48" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H48" s="220" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="I48" s="220" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="J48" s="387" t="n">
         <v>192168205223</v>
@@ -18075,13 +18093,13 @@
         <v>45773</v>
       </c>
       <c r="G49" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H49" s="220" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="I49" s="220" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="J49" s="387" t="n">
         <v>192168205255</v>
@@ -18117,16 +18135,16 @@
         <v>45772</v>
       </c>
       <c r="G50" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H50" s="220" t="s">
-        <v>713</v>
+        <v>716</v>
       </c>
       <c r="I50" s="220" t="s">
-        <v>714</v>
+        <v>717</v>
       </c>
       <c r="J50" s="220" t="s">
-        <v>715</v>
+        <v>718</v>
       </c>
       <c r="K50" s="220" t="n">
         <v>1049</v>
@@ -18156,19 +18174,19 @@
         <v>CNQ4KPPRY4</v>
       </c>
       <c r="E51" s="382" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="G51" s="221" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="H51" s="220" t="s">
-        <v>716</v>
+        <v>719</v>
       </c>
       <c r="I51" s="220" t="s">
-        <v>717</v>
+        <v>720</v>
       </c>
       <c r="J51" s="220" t="s">
-        <v>718</v>
+        <v>721</v>
       </c>
       <c r="K51" s="220" t="n">
         <v>1050</v>
@@ -18184,7 +18202,7 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="381" t="s">
-        <v>719</v>
+        <v>722</v>
       </c>
       <c r="B52" s="220" t="str">
         <f aca="false">LEFT(A52)</f>
@@ -18198,13 +18216,13 @@
       <c r="F52" s="382"/>
       <c r="G52" s="221"/>
       <c r="H52" s="220" t="s">
-        <v>720</v>
+        <v>723</v>
       </c>
       <c r="I52" s="220" t="s">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="J52" s="220" t="s">
-        <v>722</v>
+        <v>725</v>
       </c>
       <c r="K52" s="220" t="n">
         <v>1051</v>
@@ -18213,7 +18231,7 @@
         <v>123456789</v>
       </c>
       <c r="O52" s="220" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -21325,10 +21343,10 @@
         <v>512</v>
       </c>
       <c r="B1" s="390" t="s">
-        <v>724</v>
+        <v>727</v>
       </c>
       <c r="C1" s="390" t="s">
-        <v>725</v>
+        <v>728</v>
       </c>
       <c r="D1" s="362"/>
     </row>
@@ -21358,7 +21376,7 @@
     </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="395" t="s">
-        <v>726</v>
+        <v>729</v>
       </c>
       <c r="B4" s="396" t="n">
         <v>45770</v>
@@ -21370,7 +21388,7 @@
     </row>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="391" t="s">
-        <v>727</v>
+        <v>730</v>
       </c>
       <c r="B5" s="392" t="n">
         <v>45773</v>

--- a/source.xlsx
+++ b/source.xlsx
@@ -1948,7 +1948,7 @@
     <t xml:space="preserve">WPA2</t>
   </si>
   <si>
-    <t xml:space="preserve">vle</t>
+    <t xml:space="preserve">VLE</t>
   </si>
   <si>
     <t xml:space="preserve">habitación vacía</t>
@@ -1966,7 +1966,7 @@
     <t xml:space="preserve">WPA</t>
   </si>
   <si>
-    <t xml:space="preserve">vg</t>
+    <t xml:space="preserve">VG</t>
   </si>
   <si>
     <t xml:space="preserve">192.168.200.64/27</t>
@@ -5123,9 +5123,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>630360</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5134,13 +5134,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="19407" t="33607" r="45496" b="25015"/>
+        <a:srcRect l="19404" t="33602" r="45490" b="25010"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358000" y="12960"/>
-          <a:ext cx="3174480" cy="1947600"/>
+          <a:ext cx="3174120" cy="1947240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -5167,9 +5167,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>630360</xdr:colOff>
+      <xdr:colOff>630000</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>103320</xdr:rowOff>
+      <xdr:rowOff>102960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5178,13 +5178,13 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId1"/>
-        <a:srcRect l="19407" t="33607" r="45496" b="25015"/>
+        <a:srcRect l="19404" t="33602" r="45490" b="25010"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2358000" y="12960"/>
-          <a:ext cx="3174480" cy="1947600"/>
+          <a:ext cx="3174120" cy="1947240"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -10702,7 +10702,7 @@
   <dimension ref="A1:Q1052"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q4" activeCellId="0" sqref="Q4"/>
+      <selection pane="topLeft" activeCell="Q10" activeCellId="0" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
